--- a/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459B0923-9456-4EBE-AE3E-A468839D08D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37454AD-3DFA-4D53-BBAD-2413F64AFE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25500" windowHeight="14265" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="91">
   <si>
     <t>Band</t>
   </si>
@@ -331,16 +331,23 @@
   <si>
     <t>UL Frequency</t>
   </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Reduce</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.0_);\(0.0\)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -451,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -502,6 +509,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -509,7 +525,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,6 +593,11 @@
     <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -894,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AK28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,16 +935,17 @@
     <col min="12" max="12" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.28515625" style="38" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="38"/>
-    <col min="20" max="20" width="24.28515625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="27.5703125" style="38" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" style="38" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="38"/>
+    <col min="19" max="21" width="19.28515625" style="71" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="38"/>
+    <col min="23" max="23" width="24.28515625" style="38" customWidth="1"/>
+    <col min="24" max="24" width="27.5703125" style="38" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" style="38" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -978,44 +1000,51 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AB1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AK1" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -1050,8 +1079,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -1063,8 +1092,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -1073,41 +1102,49 @@
         <f>C2-80</f>
         <v>1850.7</v>
       </c>
-      <c r="T2" s="38">
-        <v>9000</v>
-      </c>
-      <c r="U2" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="Y2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="38" t="s">
-        <v>74</v>
+      <c r="S2" s="70"/>
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+      <c r="W2" s="38">
+        <v>9000</v>
+      </c>
+      <c r="X2" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="AB2" s="38">
+        <v>1</v>
       </c>
       <c r="AD2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="38" t="s">
+      <c r="AH2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AI2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK2" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -1140,8 +1177,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -1153,8 +1190,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -1163,24 +1200,18 @@
         <f t="shared" ref="R3:R28" si="0">C3-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="U3" s="38" t="s">
+      <c r="W3" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="X3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB3" s="38" t="s">
         <v>74</v>
       </c>
@@ -1188,22 +1219,31 @@
         <v>74</v>
       </c>
       <c r="AD3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AH3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF3" s="38" t="s">
+      <c r="AI3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG3" s="38" t="s">
+      <c r="AJ3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH3" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK3" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -1236,8 +1276,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1854200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1854700000</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -1249,8 +1289,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1847200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1846700000</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -1259,27 +1299,21 @@
         <f t="shared" si="0"/>
         <v>1850.7</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="38">
-        <v>1000000000</v>
-      </c>
-      <c r="U4" s="38" t="s">
+      <c r="W4" s="38">
+        <v>1000000000</v>
+      </c>
+      <c r="X4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="Y4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB4" s="38" t="s">
         <v>74</v>
       </c>
@@ -1287,22 +1321,31 @@
         <v>74</v>
       </c>
       <c r="AD4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG4" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AH4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AI4" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AJ4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH4" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK4" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -1335,8 +1378,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -1348,8 +1391,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -1358,27 +1401,21 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="W5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="38">
-        <v>12750000000</v>
-      </c>
-      <c r="V5" s="38" t="s">
+      <c r="X5" s="38">
+        <v>12750000000</v>
+      </c>
+      <c r="Y5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB5" s="38" t="s">
         <v>74</v>
       </c>
@@ -1386,22 +1423,31 @@
         <v>74</v>
       </c>
       <c r="AD5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="38" t="s">
+      <c r="AH5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AI5" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG5" s="38" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH5" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK5" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -1434,8 +1480,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -1447,8 +1493,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -1457,15 +1503,9 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="Y6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
       <c r="AB6" s="38" t="s">
         <v>74</v>
       </c>
@@ -1473,22 +1513,31 @@
         <v>74</v>
       </c>
       <c r="AD6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE6" s="38" t="s">
+      <c r="AH6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF6" s="38" t="s">
+      <c r="AI6" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG6" s="38" t="s">
+      <c r="AJ6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH6" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK6" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -1521,8 +1570,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1865000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1865500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -1534,8 +1583,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1840000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1840500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -1544,15 +1593,9 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="Y7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
       <c r="AB7" s="38" t="s">
         <v>74</v>
       </c>
@@ -1560,22 +1603,31 @@
         <v>74</v>
       </c>
       <c r="AD7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE7" s="38" t="s">
+      <c r="AH7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF7" s="38" t="s">
+      <c r="AI7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG7" s="38" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH7" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK7" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -1608,8 +1660,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -1621,8 +1673,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -1631,25 +1683,19 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="W8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="V8" s="38">
+      <c r="Y8" s="38">
         <v>1927200000</v>
       </c>
-      <c r="W8" s="38">
-        <f>V8-W10</f>
+      <c r="Z8" s="38">
+        <f>Y8-Z10</f>
         <v>1927150000</v>
       </c>
-      <c r="Y8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB8" s="38" t="s">
         <v>74</v>
       </c>
@@ -1657,22 +1703,31 @@
         <v>74</v>
       </c>
       <c r="AD8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG8" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE8" s="38" t="s">
+      <c r="AH8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF8" s="38" t="s">
+      <c r="AI8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AJ8" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK8" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -1705,8 +1760,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -1718,8 +1773,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -1728,18 +1783,12 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="W9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="Y9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB9" s="38" t="s">
         <v>74</v>
       </c>
@@ -1747,22 +1796,31 @@
         <v>74</v>
       </c>
       <c r="AD9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AH9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF9" s="38" t="s">
+      <c r="AI9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG9" s="38" t="s">
+      <c r="AJ9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH9" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -1795,8 +1853,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1895000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -1808,8 +1866,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1825000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1824500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -1818,26 +1876,20 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="T10" s="40" t="e" cm="1">
-        <f t="array" ref="T10">P</f>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="W10" s="40" t="e" cm="1">
+        <f t="array" ref="W10">P</f>
         <v>#NAME?</v>
       </c>
-      <c r="V10" s="38">
+      <c r="Y10" s="38">
         <v>100000</v>
       </c>
-      <c r="W10" s="38">
-        <f>V10/2</f>
+      <c r="Z10" s="38">
+        <f>Y10/2</f>
         <v>50000</v>
       </c>
-      <c r="Y10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA10" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB10" s="38" t="s">
         <v>74</v>
       </c>
@@ -1845,22 +1897,31 @@
         <v>74</v>
       </c>
       <c r="AD10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG10" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE10" s="38" t="s">
+      <c r="AH10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF10" s="38" t="s">
+      <c r="AI10" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG10" s="38" t="s">
+      <c r="AJ10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH10" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -1893,8 +1954,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -1906,8 +1967,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -1916,15 +1977,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
       <c r="AB11" s="38" t="s">
         <v>74</v>
       </c>
@@ -1932,22 +1987,31 @@
         <v>74</v>
       </c>
       <c r="AD11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE11" s="38" t="s">
+      <c r="AH11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF11" s="38" t="s">
+      <c r="AI11" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG11" s="38" t="s">
+      <c r="AJ11" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK11" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -1980,8 +2044,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -1993,8 +2057,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -2003,15 +2067,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z12" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
       <c r="AB12" s="38" t="s">
         <v>74</v>
       </c>
@@ -2019,22 +2077,31 @@
         <v>74</v>
       </c>
       <c r="AD12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AH12" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF12" s="38" t="s">
+      <c r="AI12" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG12" s="38" t="s">
+      <c r="AJ12" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH12" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK12" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -2067,8 +2134,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1883500000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1884000000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -2080,8 +2147,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1876500000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1876000000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -2090,15 +2157,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
       <c r="AB13" s="38" t="s">
         <v>74</v>
       </c>
@@ -2106,22 +2167,31 @@
         <v>74</v>
       </c>
       <c r="AD13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE13" s="38" t="s">
+      <c r="AH13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF13" s="38" t="s">
+      <c r="AI13" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG13" s="38" t="s">
+      <c r="AJ13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH13" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK13" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -2154,8 +2224,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -2167,8 +2237,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -2177,15 +2247,9 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="Y14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA14" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
       <c r="AB14" s="38" t="s">
         <v>74</v>
       </c>
@@ -2193,22 +2257,31 @@
         <v>74</v>
       </c>
       <c r="AD14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE14" s="38" t="s">
+      <c r="AH14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF14" s="38" t="s">
+      <c r="AI14" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG14" s="38" t="s">
+      <c r="AJ14" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH14" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -2241,8 +2314,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -2254,8 +2327,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -2264,18 +2337,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="Y15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Y15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA15" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB15" s="38" t="s">
         <v>74</v>
       </c>
@@ -2283,22 +2350,31 @@
         <v>74</v>
       </c>
       <c r="AD15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE15" s="38" t="s">
+      <c r="AH15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF15" s="38" t="s">
+      <c r="AI15" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG15" s="38" t="s">
+      <c r="AJ15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH15" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK15" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -2331,8 +2407,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1892500000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1893000000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -2344,8 +2420,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1867500000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1868000000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -2354,18 +2430,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="AA16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z16" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA16" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB16" s="38" t="s">
         <v>74</v>
       </c>
@@ -2373,22 +2443,31 @@
         <v>74</v>
       </c>
       <c r="AD16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG16" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE16" s="38" t="s">
+      <c r="AH16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF16" s="38" t="s">
+      <c r="AI16" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG16" s="38" t="s">
+      <c r="AJ16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH16" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -2421,8 +2500,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -2434,8 +2513,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -2444,18 +2523,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X17" s="38" t="s">
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="AA17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Y17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA17" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB17" s="38" t="s">
         <v>74</v>
       </c>
@@ -2463,22 +2536,31 @@
         <v>74</v>
       </c>
       <c r="AD17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE17" s="38" t="s">
+      <c r="AH17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF17" s="38" t="s">
+      <c r="AI17" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG17" s="38" t="s">
+      <c r="AJ17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH17" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK17" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -2511,8 +2593,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -2524,8 +2606,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -2534,18 +2616,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X18" s="38" t="s">
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="AA18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="Y18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA18" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB18" s="38" t="s">
         <v>74</v>
       </c>
@@ -2553,22 +2629,31 @@
         <v>74</v>
       </c>
       <c r="AD18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE18" s="38" t="s">
+      <c r="AH18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF18" s="38" t="s">
+      <c r="AI18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG18" s="38" t="s">
+      <c r="AJ18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH18" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK18" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -2601,8 +2686,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1915000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1915500000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -2614,8 +2699,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1845000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1844500000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -2624,18 +2709,12 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="X19" s="38" t="s">
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="AA19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="Y19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA19" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB19" s="38" t="s">
         <v>74</v>
       </c>
@@ -2643,22 +2722,31 @@
         <v>74</v>
       </c>
       <c r="AD19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG19" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE19" s="38" t="s">
+      <c r="AH19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF19" s="38" t="s">
+      <c r="AI19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG19" s="38" t="s">
+      <c r="AJ19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH19" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK19" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -2691,8 +2779,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -2704,8 +2792,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -2714,18 +2802,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="V20" s="38" t="s">
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="Y20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA20" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB20" s="38" t="s">
         <v>74</v>
       </c>
@@ -2733,22 +2815,31 @@
         <v>74</v>
       </c>
       <c r="AD20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE20" s="38" t="s">
+      <c r="AH20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF20" s="38" t="s">
+      <c r="AI20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG20" s="38" t="s">
+      <c r="AJ20" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH20" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK20" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -2781,8 +2872,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -2794,8 +2885,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -2804,18 +2895,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="X21" s="38" t="s">
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="AA21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z21" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA21" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB21" s="38" t="s">
         <v>74</v>
       </c>
@@ -2823,22 +2908,31 @@
         <v>74</v>
       </c>
       <c r="AD21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG21" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE21" s="38" t="s">
+      <c r="AH21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF21" s="38" t="s">
+      <c r="AI21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG21" s="38" t="s">
+      <c r="AJ21" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH21" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK21" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -2871,8 +2965,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1912800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1913300000</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -2884,8 +2978,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1905800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1905300000</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -2894,18 +2988,12 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="X22" s="38" t="s">
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="AA22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="Y22" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z22" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA22" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB22" s="38" t="s">
         <v>74</v>
       </c>
@@ -2913,22 +3001,31 @@
         <v>74</v>
       </c>
       <c r="AD22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG22" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE22" s="38" t="s">
+      <c r="AH22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF22" s="38" t="s">
+      <c r="AI22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG22" s="38" t="s">
+      <c r="AJ22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH22" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK22" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -2961,8 +3058,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -2974,8 +3071,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -2984,18 +3081,12 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="X23" s="38" t="s">
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="AA23" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA23" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB23" s="38" t="s">
         <v>74</v>
       </c>
@@ -3003,22 +3094,31 @@
         <v>74</v>
       </c>
       <c r="AD23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG23" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE23" s="38" t="s">
+      <c r="AH23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF23" s="38" t="s">
+      <c r="AI23" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG23" s="38" t="s">
+      <c r="AJ23" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH23" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK23" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -3051,8 +3151,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -3064,8 +3164,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -3074,18 +3174,12 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="X24" s="38" t="s">
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="AA24" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="Y24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA24" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB24" s="38" t="s">
         <v>74</v>
       </c>
@@ -3093,22 +3187,31 @@
         <v>74</v>
       </c>
       <c r="AD24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE24" s="38" t="s">
+      <c r="AH24" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF24" s="38" t="s">
+      <c r="AI24" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG24" s="38" t="s">
+      <c r="AJ24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH24" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK24" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -3141,8 +3244,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1920000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1920500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -3154,8 +3257,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1895000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
+        <v>1895500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -3164,15 +3267,9 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="Y25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
       <c r="AB25" s="38" t="s">
         <v>74</v>
       </c>
@@ -3180,22 +3277,31 @@
         <v>74</v>
       </c>
       <c r="AD25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE25" s="38" t="s">
+      <c r="AH25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF25" s="38" t="s">
+      <c r="AI25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG25" s="38" t="s">
+      <c r="AJ25" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH25" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK25" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -3228,8 +3334,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -3241,8 +3347,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -3251,18 +3357,12 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="X26" s="38" t="s">
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="AA26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Y26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z26" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA26" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB26" s="38" t="s">
         <v>74</v>
       </c>
@@ -3270,22 +3370,31 @@
         <v>74</v>
       </c>
       <c r="AD26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG26" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE26" s="38" t="s">
+      <c r="AH26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF26" s="38" t="s">
+      <c r="AI26" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG26" s="38" t="s">
+      <c r="AJ26" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH26" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK26" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -3318,8 +3427,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -3331,8 +3440,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -3341,18 +3450,12 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="X27" s="38" t="s">
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="AA27" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="Y27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z27" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA27" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AB27" s="38" t="s">
         <v>74</v>
       </c>
@@ -3360,22 +3463,31 @@
         <v>74</v>
       </c>
       <c r="AD27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE27" s="38" t="s">
+      <c r="AH27" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF27" s="38" t="s">
+      <c r="AI27" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG27" s="38" t="s">
+      <c r="AJ27" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH27" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AK27" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -3408,8 +3520,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1935000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1935500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -3421,8 +3533,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1865000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1864500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -3431,15 +3543,9 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="Y28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z28" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA28" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
       <c r="AB28" s="38" t="s">
         <v>74</v>
       </c>
@@ -3447,18 +3553,27 @@
         <v>74</v>
       </c>
       <c r="AD28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG28" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="AE28" s="38" t="s">
+      <c r="AH28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AF28" s="38" t="s">
+      <c r="AI28" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AG28" s="38" t="s">
+      <c r="AJ28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AH28" s="38" t="s">
+      <c r="AK28" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3474,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,7 +3615,7 @@
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3555,8 +3670,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>4</v>
       </c>
@@ -3591,8 +3712,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="56">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -3604,8 +3725,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -3614,8 +3735,15 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -3648,8 +3776,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="56">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -3661,8 +3789,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -3672,7 +3800,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -3705,8 +3833,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="56">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -3718,8 +3846,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -3729,7 +3857,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -3762,8 +3890,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="56">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -3775,8 +3903,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -3786,7 +3914,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -3819,8 +3947,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="56">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -3832,8 +3960,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -3843,7 +3971,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -3876,8 +4004,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="56">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -3889,8 +4017,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -3900,7 +4028,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -3933,8 +4061,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="56">
-        <f>(R8+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -3946,8 +4074,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -3957,7 +4085,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -3990,8 +4118,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="56">
-        <f>(R9+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -4003,8 +4131,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -4014,7 +4142,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -4047,8 +4175,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="56">
-        <f>(R10+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -4060,8 +4188,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1707500000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -4071,7 +4199,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -4104,8 +4232,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="56">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -4117,8 +4245,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -4128,7 +4256,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -4161,8 +4289,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="56">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -4174,8 +4302,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -4185,7 +4313,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -4218,8 +4346,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="56">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1736000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1736500000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -4231,8 +4359,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1729000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1728500000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -4242,7 +4370,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -4275,8 +4403,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="56">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -4288,8 +4416,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -4299,7 +4427,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -4332,8 +4460,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="56">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -4345,8 +4473,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -4356,7 +4484,7 @@
         <v>1732.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -4389,8 +4517,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="56">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1745500000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -4402,8 +4530,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1719500000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -4446,8 +4574,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="56">
-        <f>(R17+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -4459,8 +4587,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -4503,8 +4631,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="56">
-        <f>(R18+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -4516,8 +4644,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -4560,8 +4688,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="56">
-        <f>(R19+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1745000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1768000000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -4573,8 +4701,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1720000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1697000000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -4617,8 +4745,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="56">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -4630,8 +4758,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -4674,8 +4802,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="56">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -4687,8 +4815,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -4731,8 +4859,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="56">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1757800000.0000002</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1758300000.0000002</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -4744,8 +4872,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1750800000.0000002</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1750300000.0000002</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -4788,8 +4916,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="56">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -4801,8 +4929,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -4845,8 +4973,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="56">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -4858,8 +4986,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -4902,8 +5030,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="56">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1765500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -4915,8 +5043,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1740000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1739500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -4959,8 +5087,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="56">
-        <f>(R26+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -4972,8 +5100,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -5016,8 +5144,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="56">
-        <f>(R27+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -5029,8 +5157,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -5073,8 +5201,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="56">
-        <f>(R28+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -5086,8 +5214,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -5104,10 +5232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8596D56-7C71-4D72-A666-9CAEA981CBE7}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,7 +5259,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5186,8 +5314,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>5</v>
       </c>
@@ -5219,8 +5353,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -5232,8 +5366,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -5245,8 +5379,15 @@
         <f>(C2-45)</f>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="65">
         <v>1.4</v>
@@ -5276,8 +5417,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -5289,8 +5430,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -5303,7 +5444,7 @@
         <v>824.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65">
         <v>1.4</v>
@@ -5333,8 +5474,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>828200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>828250000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -5346,8 +5487,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>821200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>821150000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -5360,7 +5501,7 @@
         <v>824.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65">
         <v>5</v>
@@ -5390,8 +5531,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -5403,8 +5544,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -5417,7 +5558,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="65">
         <v>5</v>
@@ -5447,8 +5588,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -5460,8 +5601,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -5474,7 +5615,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="65">
         <v>5</v>
@@ -5504,8 +5645,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>839000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>839050000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -5517,8 +5658,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>814000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>813950000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -5531,7 +5672,7 @@
         <v>826.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="65">
         <v>10</v>
@@ -5561,8 +5702,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -5574,8 +5715,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -5588,7 +5729,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="65">
         <v>10</v>
@@ -5618,8 +5759,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -5631,8 +5772,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -5645,7 +5786,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="65">
         <v>10</v>
@@ -5675,8 +5816,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>849000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -5688,8 +5829,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>809000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>808950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -5702,7 +5843,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="65">
         <v>1.4</v>
@@ -5732,8 +5873,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -5745,8 +5886,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -5759,7 +5900,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="65">
         <v>1.4</v>
@@ -5789,8 +5930,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -5802,8 +5943,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -5816,7 +5957,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="65">
         <v>1.4</v>
@@ -5846,8 +5987,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>840000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>840050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -5859,8 +6000,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>833000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>832950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -5873,7 +6014,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65">
         <v>5</v>
@@ -5903,8 +6044,8 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L14" s="39">
         <v>1000000000</v>
@@ -5916,8 +6057,8 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P14" s="39">
         <v>1000000000</v>
@@ -5930,7 +6071,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="65">
         <v>5</v>
@@ -5960,8 +6101,8 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L15" s="39">
         <v>1000000000</v>
@@ -5973,8 +6114,8 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P15" s="39">
         <v>1000000000</v>
@@ -5987,7 +6128,7 @@
         <v>836.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="65">
         <v>5</v>
@@ -6017,8 +6158,8 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>849000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>849050000</v>
       </c>
       <c r="L16" s="39">
         <v>1000000000</v>
@@ -6030,8 +6171,8 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>824000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P16" s="39">
         <v>1000000000</v>
@@ -6074,8 +6215,8 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L17" s="39">
         <v>1000000000</v>
@@ -6087,8 +6228,8 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P17" s="39">
         <v>1000000000</v>
@@ -6131,8 +6272,8 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L18" s="39">
         <v>1000000000</v>
@@ -6144,8 +6285,8 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P18" s="39">
         <v>1000000000</v>
@@ -6188,8 +6329,8 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>856500000</v>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>856550000</v>
       </c>
       <c r="L19" s="39">
         <v>1000000000</v>
@@ -6201,8 +6342,8 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>816500000</v>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>816450000</v>
       </c>
       <c r="P19" s="39">
         <v>1000000000</v>
@@ -6245,8 +6386,8 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L20" s="39">
         <v>1000000000</v>
@@ -6258,8 +6399,8 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P20" s="39">
         <v>1000000000</v>
@@ -6302,8 +6443,8 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L21" s="39">
         <v>1000000000</v>
@@ -6315,8 +6456,8 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P21" s="39">
         <v>1000000000</v>
@@ -6359,8 +6500,8 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>851800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>851850000</v>
       </c>
       <c r="L22" s="39">
         <v>1000000000</v>
@@ -6372,8 +6513,8 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>844800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>844750000</v>
       </c>
       <c r="P22" s="39">
         <v>1000000000</v>
@@ -6416,8 +6557,8 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L23" s="39">
         <v>1000000000</v>
@@ -6429,8 +6570,8 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P23" s="39">
         <v>1000000000</v>
@@ -6473,8 +6614,8 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L24" s="39">
         <v>1000000000</v>
@@ -6486,8 +6627,8 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P24" s="39">
         <v>1000000000</v>
@@ -6530,8 +6671,8 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>859000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>859050000</v>
       </c>
       <c r="L25" s="39">
         <v>1000000000</v>
@@ -6543,8 +6684,8 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>834000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>833950000</v>
       </c>
       <c r="P25" s="39">
         <v>1000000000</v>
@@ -6587,8 +6728,8 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L26" s="39">
         <v>1000000000</v>
@@ -6600,8 +6741,8 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P26" s="39">
         <v>1000000000</v>
@@ -6644,8 +6785,8 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L27" s="39">
         <v>1000000000</v>
@@ -6657,8 +6798,8 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P27" s="39">
         <v>1000000000</v>
@@ -6701,8 +6842,8 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>864000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>864050000</v>
       </c>
       <c r="L28" s="39">
         <v>1000000000</v>
@@ -6714,8 +6855,8 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>824000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>823950000</v>
       </c>
       <c r="P28" s="39">
         <v>1000000000</v>
@@ -6760,10 +6901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:R28"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6787,7 +6928,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -6842,8 +6983,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>12</v>
       </c>
@@ -6875,8 +7022,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -6888,8 +7035,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -6901,8 +7048,15 @@
         <f>C2-30</f>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -6932,8 +7086,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -6945,8 +7099,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -6959,7 +7113,7 @@
         <v>699.7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -6989,8 +7143,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>703200000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>703250000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -7002,8 +7156,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>696200000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>696150000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -7016,7 +7170,7 @@
         <v>699.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -7046,8 +7200,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -7059,8 +7213,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -7073,7 +7227,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -7103,8 +7257,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -7116,8 +7270,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -7130,7 +7284,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -7160,8 +7314,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>714000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>714050000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -7173,8 +7327,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>689000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>688950000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -7187,7 +7341,7 @@
         <v>701.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>10</v>
@@ -7217,8 +7371,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -7230,8 +7384,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -7244,7 +7398,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>10</v>
@@ -7274,8 +7428,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -7287,8 +7441,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -7301,7 +7455,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>10</v>
@@ -7331,8 +7485,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>724000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>724050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -7344,8 +7498,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>684000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>683950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -7358,7 +7512,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -7388,8 +7542,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -7401,8 +7555,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -7415,7 +7569,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -7445,8 +7599,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -7458,8 +7612,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -7472,7 +7626,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -7502,8 +7656,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>711050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -7515,8 +7669,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>704000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>703950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -7529,7 +7683,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -7559,8 +7713,8 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L14" s="39">
         <v>1000000000</v>
@@ -7572,8 +7726,8 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P14" s="39">
         <v>1000000000</v>
@@ -7586,7 +7740,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -7616,8 +7770,8 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L15" s="39">
         <v>1000000000</v>
@@ -7629,8 +7783,8 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P15" s="39">
         <v>1000000000</v>
@@ -7643,7 +7797,7 @@
         <v>707.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -7673,8 +7827,8 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>720000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>720050000</v>
       </c>
       <c r="L16" s="39">
         <v>1000000000</v>
@@ -7686,8 +7840,8 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>695000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>694950000</v>
       </c>
       <c r="P16" s="39">
         <v>1000000000</v>
@@ -7730,8 +7884,8 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L17" s="39">
         <v>1000000000</v>
@@ -7743,8 +7897,8 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P17" s="39">
         <v>1000000000</v>
@@ -7787,8 +7941,8 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L18" s="39">
         <v>1000000000</v>
@@ -7800,8 +7954,8 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P18" s="39">
         <v>1000000000</v>
@@ -7844,8 +7998,8 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>727500000</v>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>727550000</v>
       </c>
       <c r="L19" s="39">
         <v>1000000000</v>
@@ -7857,8 +8011,8 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>687500000</v>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>687450000</v>
       </c>
       <c r="P19" s="39">
         <v>1000000000</v>
@@ -7901,8 +8055,8 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L20" s="39">
         <v>1000000000</v>
@@ -7914,8 +8068,8 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P20" s="39">
         <v>1000000000</v>
@@ -7958,8 +8112,8 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L21" s="39">
         <v>1000000000</v>
@@ -7971,8 +8125,8 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P21" s="39">
         <v>1000000000</v>
@@ -8015,8 +8169,8 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>718800000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>718850000</v>
       </c>
       <c r="L22" s="39">
         <v>1000000000</v>
@@ -8028,8 +8182,8 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>711800000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>711750000</v>
       </c>
       <c r="P22" s="39">
         <v>1000000000</v>
@@ -8072,8 +8226,8 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L23" s="39">
         <v>1000000000</v>
@@ -8085,8 +8239,8 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P23" s="39">
         <v>1000000000</v>
@@ -8129,8 +8283,8 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L24" s="39">
         <v>1000000000</v>
@@ -8142,8 +8296,8 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P24" s="39">
         <v>1000000000</v>
@@ -8186,8 +8340,8 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>726000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>726050000</v>
       </c>
       <c r="L25" s="39">
         <v>1000000000</v>
@@ -8199,8 +8353,8 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>701000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>700950000</v>
       </c>
       <c r="P25" s="39">
         <v>1000000000</v>
@@ -8243,8 +8397,8 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L26" s="39">
         <v>1000000000</v>
@@ -8256,8 +8410,8 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P26" s="39">
         <v>1000000000</v>
@@ -8300,8 +8454,8 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L27" s="39">
         <v>1000000000</v>
@@ -8313,8 +8467,8 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P27" s="39">
         <v>1000000000</v>
@@ -8357,8 +8511,8 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>731000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>731050000</v>
       </c>
       <c r="L28" s="39">
         <v>1000000000</v>
@@ -8370,8 +8524,8 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>691000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>690950000</v>
       </c>
       <c r="P28" s="39">
         <v>1000000000</v>
@@ -8391,10 +8545,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8417,7 +8571,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -8472,8 +8626,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>13</v>
       </c>
@@ -8505,8 +8665,8 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L2" s="39">
         <v>1000000000</v>
@@ -8518,8 +8678,8 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P2" s="39">
         <v>1000000000</v>
@@ -8531,8 +8691,15 @@
         <f>C2+31</f>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>100000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>5</v>
@@ -8562,8 +8729,8 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L3" s="39">
         <v>1000000000</v>
@@ -8575,8 +8742,8 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P3" s="39">
         <v>1000000000</v>
@@ -8589,7 +8756,7 @@
         <v>779.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>5</v>
@@ -8619,8 +8786,8 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>792000000</v>
+        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>792050000</v>
       </c>
       <c r="L4" s="39">
         <v>1000000000</v>
@@ -8632,8 +8799,8 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>767000000</v>
+        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>766950000</v>
       </c>
       <c r="P4" s="39">
         <v>1000000000</v>
@@ -8646,7 +8813,7 @@
         <v>779.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -8676,8 +8843,8 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L5" s="39">
         <v>1000000000</v>
@@ -8689,8 +8856,8 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P5" s="39">
         <v>1000000000</v>
@@ -8703,7 +8870,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -8733,8 +8900,8 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L6" s="39">
         <v>1000000000</v>
@@ -8746,8 +8913,8 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P6" s="39">
         <v>1000000000</v>
@@ -8760,7 +8927,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -8790,8 +8957,8 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>794500000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>794550000</v>
       </c>
       <c r="L7" s="39">
         <v>1000000000</v>
@@ -8803,8 +8970,8 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>769500000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>769450000</v>
       </c>
       <c r="P7" s="39">
         <v>1000000000</v>
@@ -8817,7 +8984,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>5</v>
@@ -8847,8 +9014,8 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L8" s="39">
         <v>1000000000</v>
@@ -8860,8 +9027,8 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P8" s="39">
         <v>1000000000</v>
@@ -8874,7 +9041,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>5</v>
@@ -8904,8 +9071,8 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L9" s="39">
         <v>1000000000</v>
@@ -8917,8 +9084,8 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P9" s="39">
         <v>1000000000</v>
@@ -8931,7 +9098,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -8961,8 +9128,8 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>797000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>797050000</v>
       </c>
       <c r="L10" s="39">
         <v>1000000000</v>
@@ -8974,8 +9141,8 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>772000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>771950000</v>
       </c>
       <c r="P10" s="39">
         <v>1000000000</v>
@@ -8988,7 +9155,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>10</v>
@@ -9018,8 +9185,8 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L11" s="39">
         <v>1000000000</v>
@@ -9031,8 +9198,8 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P11" s="39">
         <v>1000000000</v>
@@ -9045,7 +9212,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>10</v>
@@ -9075,8 +9242,8 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L12" s="39">
         <v>1000000000</v>
@@ -9088,8 +9255,8 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P12" s="39">
         <v>1000000000</v>
@@ -9102,7 +9269,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -9132,8 +9299,8 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>802000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <v>802050000</v>
       </c>
       <c r="L13" s="39">
         <v>1000000000</v>
@@ -9145,8 +9312,8 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$5)*1000000</f>
-        <v>762000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <v>761950000</v>
       </c>
       <c r="P13" s="39">
         <v>1000000000</v>
@@ -9167,10 +9334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:R28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9186,7 +9353,7 @@
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -9241,8 +9408,14 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" s="67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>66</v>
       </c>
@@ -9258,7 +9431,7 @@
       <c r="E2" s="51">
         <v>0</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="68">
         <v>23</v>
       </c>
       <c r="G2" s="39" t="s">
@@ -9277,8 +9450,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>(R2+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -9290,8 +9463,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>(R2-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -9300,8 +9473,15 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2">
+        <f>T2/2</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -9315,7 +9495,7 @@
       <c r="E3" s="51">
         <v>0</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="68">
         <v>23</v>
       </c>
       <c r="G3" s="39" t="s">
@@ -9334,8 +9514,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>(R3+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -9347,8 +9527,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>(R3-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -9358,7 +9538,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -9372,7 +9552,7 @@
       <c r="E4" s="51">
         <v>5</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="68">
         <v>23</v>
       </c>
       <c r="G4" s="39" t="s">
@@ -9391,8 +9571,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>(R4+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1714199999.9999998</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -9404,8 +9584,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>(R4-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1707199999.9999998</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -9415,7 +9595,7 @@
         <v>1710.6999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -9429,7 +9609,7 @@
       <c r="E5" s="51">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="68">
         <v>23</v>
       </c>
       <c r="G5" s="39" t="s">
@@ -9448,8 +9628,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>(R5+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -9461,8 +9641,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="58">
-        <f>(R5-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -9472,7 +9652,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -9486,7 +9666,7 @@
       <c r="E6" s="51">
         <v>0</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="68">
         <v>23</v>
       </c>
       <c r="G6" s="39" t="s">
@@ -9505,8 +9685,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>(R6+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -9518,8 +9698,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="58">
-        <f>(R6-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -9529,7 +9709,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -9543,7 +9723,7 @@
       <c r="E7" s="51">
         <v>24</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="68">
         <v>23</v>
       </c>
       <c r="G7" s="39" t="s">
@@ -9562,8 +9742,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>(R7+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1725000000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1725500000</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -9575,8 +9755,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="58">
-        <f>(R7-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1700000000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -9586,7 +9766,7 @@
         <v>1712.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -9600,7 +9780,7 @@
       <c r="E8" s="51">
         <v>0</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="68">
         <v>23</v>
       </c>
       <c r="G8" s="39" t="s">
@@ -9619,8 +9799,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>(R8+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -9632,8 +9812,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>(R8-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -9643,7 +9823,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -9657,7 +9837,7 @@
       <c r="E9" s="51">
         <v>0</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="68">
         <v>23</v>
       </c>
       <c r="G9" s="39" t="s">
@@ -9676,8 +9856,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>(R9+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -9689,8 +9869,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>(R9-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -9700,7 +9880,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -9714,7 +9894,7 @@
       <c r="E10" s="51">
         <v>99</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="68">
         <v>23</v>
       </c>
       <c r="G10" s="39" t="s">
@@ -9733,8 +9913,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>(R10+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1755000000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1755500000</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -9746,8 +9926,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>(R10-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1685000000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -9757,7 +9937,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -9771,7 +9951,7 @@
       <c r="E11" s="41">
         <v>0</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="68">
         <v>23</v>
       </c>
       <c r="G11" s="42" t="s">
@@ -9790,8 +9970,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>(R11+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -9803,8 +9983,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>(R11-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -9814,7 +9994,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -9828,7 +10008,7 @@
       <c r="E12" s="41">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="68">
         <v>23</v>
       </c>
       <c r="G12" s="42" t="s">
@@ -9847,8 +10027,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>(R12+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -9860,8 +10040,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>(R12-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -9871,7 +10051,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -9885,7 +10065,7 @@
       <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="68">
         <v>23</v>
       </c>
       <c r="G13" s="42" t="s">
@@ -9904,8 +10084,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>(R13+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1748500000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1749000000</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -9917,8 +10097,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>(R13-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1741500000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1741000000</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -9928,7 +10108,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -9942,7 +10122,7 @@
       <c r="E14" s="41">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="68">
         <v>23</v>
       </c>
       <c r="G14" s="42" t="s">
@@ -9961,8 +10141,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>(R14+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -9974,8 +10154,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="58">
-        <f>(R14-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -9985,7 +10165,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -9999,7 +10179,7 @@
       <c r="E15" s="41">
         <v>0</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="68">
         <v>23</v>
       </c>
       <c r="G15" s="42" t="s">
@@ -10018,8 +10198,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>(R15+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -10031,8 +10211,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="58">
-        <f>(R15-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -10042,7 +10222,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -10056,7 +10236,7 @@
       <c r="E16" s="41">
         <v>24</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="68">
         <v>23</v>
       </c>
       <c r="G16" s="42" t="s">
@@ -10075,8 +10255,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>(R16+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1757500000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1758000000</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -10088,8 +10268,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="58">
-        <f>(R16-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1732500000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1732000000</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -10113,7 +10293,7 @@
       <c r="E17" s="41">
         <v>0</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="68">
         <v>23</v>
       </c>
       <c r="G17" s="42" t="s">
@@ -10132,8 +10312,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>(R17+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -10145,8 +10325,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>(R17-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -10170,7 +10350,7 @@
       <c r="E18" s="41">
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="68">
         <v>23</v>
       </c>
       <c r="G18" s="42" t="s">
@@ -10189,8 +10369,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>(R18+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -10202,8 +10382,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>(R18-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -10227,7 +10407,7 @@
       <c r="E19" s="41">
         <v>99</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="68">
         <v>23</v>
       </c>
       <c r="G19" s="42" t="s">
@@ -10246,8 +10426,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>(R19+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1780000000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1780500000</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -10259,8 +10439,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>(R19-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1710000000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1709500000</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -10284,7 +10464,7 @@
       <c r="E20" s="44">
         <v>0</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="68">
         <v>23</v>
       </c>
       <c r="G20" s="45" t="s">
@@ -10303,8 +10483,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>(R20+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -10316,8 +10496,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>(R20-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -10341,7 +10521,7 @@
       <c r="E21" s="44">
         <v>0</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="68">
         <v>23</v>
       </c>
       <c r="G21" s="45" t="s">
@@ -10360,8 +10540,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>(R21+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -10373,8 +10553,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>(R21-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -10398,7 +10578,7 @@
       <c r="E22" s="44">
         <v>5</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="68">
         <v>23</v>
       </c>
       <c r="G22" s="45" t="s">
@@ -10417,8 +10597,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>(R22+'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1782800000.0000002</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <v>1783300000.0000002</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -10430,8 +10610,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>(R22-'Frequency Range Setting'!$B$2)*1000000</f>
-        <v>1775800000.0000002</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <v>1775300000.0000002</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -10455,7 +10635,7 @@
       <c r="E23" s="44">
         <v>0</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="68">
         <v>23</v>
       </c>
       <c r="G23" s="45" t="s">
@@ -10474,8 +10654,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>(R23+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -10487,8 +10667,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="58">
-        <f>(R23-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -10512,7 +10692,7 @@
       <c r="E24" s="44">
         <v>0</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="68">
         <v>23</v>
       </c>
       <c r="G24" s="45" t="s">
@@ -10531,8 +10711,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>(R24+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -10544,8 +10724,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="58">
-        <f>(R24-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -10569,7 +10749,7 @@
       <c r="E25" s="44">
         <v>24</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="68">
         <v>23</v>
       </c>
       <c r="G25" s="45" t="s">
@@ -10588,8 +10768,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>(R25+'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1790000000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <v>1790500000</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -10601,8 +10781,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="58">
-        <f>(R25-'Frequency Range Setting'!$B$4)*1000000</f>
-        <v>1765000000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <v>1764500000</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -10626,7 +10806,7 @@
       <c r="E26" s="44">
         <v>0</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="68">
         <v>23</v>
       </c>
       <c r="G26" s="45" t="s">
@@ -10645,8 +10825,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>(R26+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -10658,8 +10838,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>(R26-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -10683,7 +10863,7 @@
       <c r="E27" s="44">
         <v>0</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="68">
         <v>23</v>
       </c>
       <c r="G27" s="45" t="s">
@@ -10702,8 +10882,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>(R27+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -10715,8 +10895,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>(R27-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -10740,7 +10920,7 @@
       <c r="E28" s="44">
         <v>99</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="68">
         <v>23</v>
       </c>
       <c r="G28" s="45" t="s">
@@ -10759,8 +10939,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>(R28+'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1805000000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <v>1805500000</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -10772,8 +10952,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>(R28-'Frequency Range Setting'!$B$7)*1000000</f>
-        <v>1735000000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <v>1734500000</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -10785,6 +10965,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11735,7 +11916,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A21" sqref="A21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37454AD-3DFA-4D53-BBAD-2413F64AFE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A424CF-ED59-49B8-AFD1-495F34625675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="96">
   <si>
     <t>Band</t>
   </si>
@@ -337,17 +337,34 @@
   <si>
     <t>Reduce</t>
   </si>
+  <si>
+    <t>UL_attenuation</t>
+  </si>
+  <si>
+    <t>Ul_frequency</t>
+  </si>
+  <si>
+    <t>DL_attenuation</t>
+  </si>
+  <si>
+    <t>Dl_attenuation</t>
+  </si>
+  <si>
+    <t>UL_attenuationDL_attenuation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="167" formatCode="0.0_);\(0.0\)"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -525,7 +542,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -595,9 +612,30 @@
     <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -915,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F21EF5-0615-4121-83E8-517FC8180B1A}">
-  <dimension ref="A1:AK28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,17 +973,20 @@
     <col min="12" max="12" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="15.5703125" style="38" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.28515625" style="38" customWidth="1"/>
-    <col min="19" max="21" width="19.28515625" style="71" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="38"/>
-    <col min="23" max="23" width="24.28515625" style="38" customWidth="1"/>
-    <col min="24" max="24" width="27.5703125" style="38" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" style="38" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="38"/>
+    <col min="19" max="19" width="19.28515625" style="75" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" style="76" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" style="72" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="70" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="38"/>
+    <col min="24" max="24" width="24.28515625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="27.5703125" style="38" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" style="38" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="67.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -998,53 +1039,56 @@
         <v>87</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="S1" s="69"/>
-      <c r="T1" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="71"/>
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AC1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AD1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AK1" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AL1" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>2</v>
       </c>
@@ -1079,8 +1123,8 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1854200002.55</v>
       </c>
       <c r="M2" s="39">
         <v>150000</v>
@@ -1092,8 +1136,8 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1847199997.45</v>
       </c>
       <c r="Q2" s="39">
         <v>12750000000</v>
@@ -1102,25 +1146,24 @@
         <f>C2-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2">
-        <v>1000000</v>
-      </c>
-      <c r="U2">
-        <f>T2/2</f>
-        <v>500000</v>
-      </c>
-      <c r="W2" s="38">
-        <v>9000</v>
+      <c r="S2" s="73">
+        <v>4.87</v>
+      </c>
+      <c r="T2" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U2" s="71"/>
+      <c r="V2">
+        <v>2.5499999999999998</v>
       </c>
       <c r="X2" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="AB2" s="38">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="38" t="s">
-        <v>74</v>
+        <v>9000</v>
+      </c>
+      <c r="Y2" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="AC2" s="38">
+        <v>1</v>
       </c>
       <c r="AE2" s="38" t="s">
         <v>74</v>
@@ -1129,22 +1172,25 @@
         <v>74</v>
       </c>
       <c r="AG2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH2" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI2" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -1177,8 +1223,8 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1854200002.55</v>
       </c>
       <c r="M3" s="39">
         <v>150000</v>
@@ -1190,8 +1236,8 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1847199997.45</v>
       </c>
       <c r="Q3" s="39">
         <v>12750000000</v>
@@ -1200,21 +1246,23 @@
         <f t="shared" ref="R3:R28" si="0">C3-80</f>
         <v>1850.7</v>
       </c>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="38" t="s">
+      <c r="S3" s="73">
+        <v>4.87</v>
+      </c>
+      <c r="T3" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="38">
-        <v>30000000</v>
-      </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="38">
+        <v>30000000</v>
+      </c>
+      <c r="Y3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="AB3" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC3" s="38" t="s">
         <v>74</v>
       </c>
@@ -1228,22 +1276,25 @@
         <v>74</v>
       </c>
       <c r="AG3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH3" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI3" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK3" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -1276,8 +1327,8 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1854700000</v>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1854200002.55</v>
       </c>
       <c r="M4" s="39">
         <v>150000</v>
@@ -1289,8 +1340,8 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1846700000</v>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1847199997.45</v>
       </c>
       <c r="Q4" s="39">
         <v>12750000000</v>
@@ -1299,23 +1350,25 @@
         <f t="shared" si="0"/>
         <v>1850.7</v>
       </c>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="38" t="s">
+      <c r="S4" s="73">
+        <v>4.87</v>
+      </c>
+      <c r="T4" s="74">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U4" s="71"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="38">
-        <v>1000000000</v>
-      </c>
-      <c r="X4" s="38" t="s">
-        <v>47</v>
+      <c r="X4" s="38">
+        <v>1000000000</v>
       </c>
       <c r="Y4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="38" t="s">
-        <v>74</v>
+      <c r="Z4" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="AC4" s="38" t="s">
         <v>74</v>
@@ -1330,22 +1383,25 @@
         <v>74</v>
       </c>
       <c r="AG4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH4" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI4" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ4" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK4" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -1378,8 +1434,8 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1865000002.55</v>
       </c>
       <c r="M5" s="39">
         <v>150000</v>
@@ -1391,8 +1447,8 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1840000002.55</v>
       </c>
       <c r="Q5" s="39">
         <v>12750000000</v>
@@ -1401,24 +1457,26 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="38" t="s">
+      <c r="S5" s="73">
+        <v>4.88</v>
+      </c>
+      <c r="T5" s="74">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U5" s="71"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="X5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="X5" s="38">
-        <v>12750000000</v>
-      </c>
-      <c r="Y5" s="38" t="s">
+      <c r="Y5" s="38">
+        <v>12750000000</v>
+      </c>
+      <c r="Z5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC5" s="38" t="s">
         <v>74</v>
       </c>
@@ -1432,22 +1490,25 @@
         <v>74</v>
       </c>
       <c r="AG5" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH5" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH5" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI5" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ5" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK5" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -1480,8 +1541,8 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1865000002.55</v>
       </c>
       <c r="M6" s="39">
         <v>150000</v>
@@ -1493,8 +1554,8 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1840000002.55</v>
       </c>
       <c r="Q6" s="39">
         <v>12750000000</v>
@@ -1503,12 +1564,14 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="AB6" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S6" s="73">
+        <v>4.88</v>
+      </c>
+      <c r="T6" s="74">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U6" s="71"/>
+      <c r="V6" s="69"/>
       <c r="AC6" s="38" t="s">
         <v>74</v>
       </c>
@@ -1522,22 +1585,25 @@
         <v>74</v>
       </c>
       <c r="AG6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH6" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI6" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK6" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -1570,8 +1636,8 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1865500000</v>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1865000002.55</v>
       </c>
       <c r="M7" s="39">
         <v>150000</v>
@@ -1583,8 +1649,8 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1840500000</v>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1840000002.55</v>
       </c>
       <c r="Q7" s="39">
         <v>12750000000</v>
@@ -1593,12 +1659,14 @@
         <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="AB7" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S7" s="73">
+        <v>4.88</v>
+      </c>
+      <c r="T7" s="74">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U7" s="71"/>
+      <c r="V7" s="69"/>
       <c r="AC7" s="38" t="s">
         <v>74</v>
       </c>
@@ -1612,22 +1680,25 @@
         <v>74</v>
       </c>
       <c r="AG7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH7" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH7" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI7" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK7" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK7" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -1660,8 +1731,8 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="M8" s="39">
         <v>150000</v>
@@ -1673,8 +1744,8 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1824999997.45</v>
       </c>
       <c r="Q8" s="39">
         <v>12750000000</v>
@@ -1683,22 +1754,24 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="W8" s="38" t="s">
+      <c r="S8" s="73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T8" s="74">
+        <v>5.13</v>
+      </c>
+      <c r="U8" s="71"/>
+      <c r="V8" s="69"/>
+      <c r="X8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="38">
+      <c r="Z8" s="38">
         <v>1927200000</v>
       </c>
-      <c r="Z8" s="38">
-        <f>Y8-Z10</f>
+      <c r="AA8" s="38">
+        <f>Z8-AA10</f>
         <v>1927150000</v>
       </c>
-      <c r="AB8" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC8" s="38" t="s">
         <v>74</v>
       </c>
@@ -1712,22 +1785,25 @@
         <v>74</v>
       </c>
       <c r="AG8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH8" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI8" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK8" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK8" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -1760,8 +1836,8 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="M9" s="39">
         <v>150000</v>
@@ -1773,8 +1849,8 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1824999997.45</v>
       </c>
       <c r="Q9" s="39">
         <v>12750000000</v>
@@ -1783,15 +1859,17 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="W9" s="38" t="s">
+      <c r="S9" s="73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T9" s="74">
+        <v>5.13</v>
+      </c>
+      <c r="U9" s="71"/>
+      <c r="V9" s="69"/>
+      <c r="X9" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="AB9" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC9" s="38" t="s">
         <v>74</v>
       </c>
@@ -1805,22 +1883,25 @@
         <v>74</v>
       </c>
       <c r="AG9" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH9" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI9" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK9" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK9" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -1853,8 +1934,8 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1895500000</v>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="M10" s="39">
         <v>150000</v>
@@ -1866,8 +1947,8 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1824500000</v>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1824999997.45</v>
       </c>
       <c r="Q10" s="39">
         <v>12750000000</v>
@@ -1876,23 +1957,25 @@
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="W10" s="40" t="e" cm="1">
-        <f t="array" ref="W10">P</f>
+      <c r="S10" s="73">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T10" s="74">
+        <v>5.13</v>
+      </c>
+      <c r="U10" s="71"/>
+      <c r="V10" s="69"/>
+      <c r="X10" s="40" t="e" cm="1">
+        <f t="array" ref="X10">P</f>
         <v>#NAME?</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Z10" s="38">
         <v>100000</v>
       </c>
-      <c r="Z10" s="38">
-        <f>Y10/2</f>
+      <c r="AA10" s="38">
+        <f>Z10/2</f>
         <v>50000</v>
       </c>
-      <c r="AB10" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC10" s="38" t="s">
         <v>74</v>
       </c>
@@ -1906,22 +1989,25 @@
         <v>74</v>
       </c>
       <c r="AG10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH10" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI10" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ10" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK10" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -1954,8 +2040,8 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1883500002.55</v>
       </c>
       <c r="M11" s="39">
         <v>150000</v>
@@ -1967,8 +2053,8 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1876499997.45</v>
       </c>
       <c r="Q11" s="39">
         <v>12750000000</v>
@@ -1977,12 +2063,14 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="AB11" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S11" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T11" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U11" s="71"/>
+      <c r="V11" s="69"/>
       <c r="AC11" s="38" t="s">
         <v>74</v>
       </c>
@@ -1996,22 +2084,25 @@
         <v>74</v>
       </c>
       <c r="AG11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH11" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH11" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI11" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK11" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK11" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -2044,8 +2135,8 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1883500002.55</v>
       </c>
       <c r="M12" s="39">
         <v>150000</v>
@@ -2057,8 +2148,8 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1876499997.45</v>
       </c>
       <c r="Q12" s="39">
         <v>12750000000</v>
@@ -2067,12 +2158,14 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="AB12" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S12" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T12" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U12" s="71"/>
+      <c r="V12" s="69"/>
       <c r="AC12" s="38" t="s">
         <v>74</v>
       </c>
@@ -2086,22 +2179,25 @@
         <v>74</v>
       </c>
       <c r="AG12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH12" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH12" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI12" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK12" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK12" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -2134,8 +2230,8 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1884000000</v>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1883500002.55</v>
       </c>
       <c r="M13" s="39">
         <v>150000</v>
@@ -2147,8 +2243,8 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1876000000</v>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1876499997.45</v>
       </c>
       <c r="Q13" s="39">
         <v>12750000000</v>
@@ -2157,12 +2253,14 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="AB13" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S13" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T13" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U13" s="71"/>
+      <c r="V13" s="69"/>
       <c r="AC13" s="38" t="s">
         <v>74</v>
       </c>
@@ -2176,22 +2274,25 @@
         <v>74</v>
       </c>
       <c r="AG13" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH13" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI13" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK13" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -2224,8 +2325,8 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1892500002.55</v>
       </c>
       <c r="M14" s="39">
         <v>150000</v>
@@ -2237,8 +2338,8 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1867500002.55</v>
       </c>
       <c r="Q14" s="39">
         <v>12750000000</v>
@@ -2247,12 +2348,14 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="AB14" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S14" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T14" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U14" s="71"/>
+      <c r="V14" s="69"/>
       <c r="AC14" s="38" t="s">
         <v>74</v>
       </c>
@@ -2266,22 +2369,25 @@
         <v>74</v>
       </c>
       <c r="AG14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH14" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI14" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK14" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK14" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -2314,8 +2420,8 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1892500002.55</v>
       </c>
       <c r="M15" s="39">
         <v>150000</v>
@@ -2327,8 +2433,8 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1867500002.55</v>
       </c>
       <c r="Q15" s="39">
         <v>12750000000</v>
@@ -2337,15 +2443,17 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="Y15" s="38" t="s">
+      <c r="S15" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T15" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U15" s="71"/>
+      <c r="V15" s="69"/>
+      <c r="Z15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="AB15" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC15" s="38" t="s">
         <v>74</v>
       </c>
@@ -2359,22 +2467,25 @@
         <v>74</v>
       </c>
       <c r="AG15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH15" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH15" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI15" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ15" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK15" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK15" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -2407,8 +2518,8 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1893000000</v>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1892500002.55</v>
       </c>
       <c r="M16" s="39">
         <v>150000</v>
@@ -2420,8 +2531,8 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1868000000</v>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1867500002.55</v>
       </c>
       <c r="Q16" s="39">
         <v>12750000000</v>
@@ -2430,15 +2541,17 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="AA16" s="38" t="s">
+      <c r="S16" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T16" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U16" s="71"/>
+      <c r="V16" s="69"/>
+      <c r="AB16" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AB16" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC16" s="38" t="s">
         <v>74</v>
       </c>
@@ -2452,22 +2565,25 @@
         <v>74</v>
       </c>
       <c r="AG16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH16" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI16" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK16" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK16" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -2500,8 +2616,8 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1915000002.55</v>
       </c>
       <c r="M17" s="39">
         <v>150000</v>
@@ -2513,8 +2629,8 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1844999997.45</v>
       </c>
       <c r="Q17" s="39">
         <v>12750000000</v>
@@ -2523,15 +2639,17 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="AA17" s="38" t="s">
+      <c r="S17" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T17" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U17" s="71"/>
+      <c r="V17" s="69"/>
+      <c r="AB17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AB17" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC17" s="38" t="s">
         <v>74</v>
       </c>
@@ -2545,22 +2663,25 @@
         <v>74</v>
       </c>
       <c r="AG17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH17" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH17" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI17" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK17" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -2593,8 +2714,8 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1915000002.55</v>
       </c>
       <c r="M18" s="39">
         <v>150000</v>
@@ -2606,8 +2727,8 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1844999997.45</v>
       </c>
       <c r="Q18" s="39">
         <v>12750000000</v>
@@ -2616,15 +2737,17 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="AA18" s="38" t="s">
+      <c r="S18" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T18" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U18" s="71"/>
+      <c r="V18" s="69"/>
+      <c r="AB18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AB18" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC18" s="38" t="s">
         <v>74</v>
       </c>
@@ -2638,22 +2761,25 @@
         <v>74</v>
       </c>
       <c r="AG18" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH18" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI18" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK18" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -2686,8 +2812,8 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1915500000</v>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1915000002.55</v>
       </c>
       <c r="M19" s="39">
         <v>150000</v>
@@ -2699,8 +2825,8 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1844500000</v>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1844999997.45</v>
       </c>
       <c r="Q19" s="39">
         <v>12750000000</v>
@@ -2709,15 +2835,17 @@
         <f t="shared" si="0"/>
         <v>1880</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="AA19" s="38" t="s">
+      <c r="S19" s="73">
+        <v>4.95</v>
+      </c>
+      <c r="T19" s="74">
+        <v>5.18</v>
+      </c>
+      <c r="U19" s="71"/>
+      <c r="V19" s="69"/>
+      <c r="AB19" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="AB19" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC19" s="38" t="s">
         <v>74</v>
       </c>
@@ -2731,22 +2859,25 @@
         <v>74</v>
       </c>
       <c r="AG19" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH19" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH19" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI19" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK19" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK19" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -2779,8 +2910,8 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1912800002.55</v>
       </c>
       <c r="M20" s="39">
         <v>150000</v>
@@ -2792,8 +2923,8 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1905799997.45</v>
       </c>
       <c r="Q20" s="39">
         <v>12750000000</v>
@@ -2802,15 +2933,17 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="Y20" s="38" t="s">
+      <c r="S20" s="73">
+        <v>5.04</v>
+      </c>
+      <c r="T20" s="74">
+        <v>5.27</v>
+      </c>
+      <c r="U20" s="71"/>
+      <c r="V20" s="69"/>
+      <c r="Z20" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC20" s="38" t="s">
         <v>74</v>
       </c>
@@ -2824,22 +2957,25 @@
         <v>74</v>
       </c>
       <c r="AG20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH20" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH20" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI20" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ20" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK20" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK20" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -2872,8 +3008,8 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1912800002.55</v>
       </c>
       <c r="M21" s="39">
         <v>150000</v>
@@ -2885,8 +3021,8 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1905799997.45</v>
       </c>
       <c r="Q21" s="39">
         <v>12750000000</v>
@@ -2895,15 +3031,17 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="AA21" s="38" t="s">
+      <c r="S21" s="73">
+        <v>5.04</v>
+      </c>
+      <c r="T21" s="74">
+        <v>5.27</v>
+      </c>
+      <c r="U21" s="71"/>
+      <c r="V21" s="69"/>
+      <c r="AB21" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AB21" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC21" s="38" t="s">
         <v>74</v>
       </c>
@@ -2917,22 +3055,25 @@
         <v>74</v>
       </c>
       <c r="AG21" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH21" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH21" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI21" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ21" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK21" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK21" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -2965,8 +3106,8 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
-        <v>1913300000</v>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
+        <v>1912800002.55</v>
       </c>
       <c r="M22" s="39">
         <v>150000</v>
@@ -2978,8 +3119,8 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
-        <v>1905300000</v>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
+        <v>1905799997.45</v>
       </c>
       <c r="Q22" s="39">
         <v>12750000000</v>
@@ -2988,15 +3129,17 @@
         <f t="shared" si="0"/>
         <v>1909.3</v>
       </c>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="AA22" s="38" t="s">
+      <c r="S22" s="73">
+        <v>5.04</v>
+      </c>
+      <c r="T22" s="74">
+        <v>5.27</v>
+      </c>
+      <c r="U22" s="71"/>
+      <c r="V22" s="69"/>
+      <c r="AB22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AB22" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC22" s="38" t="s">
         <v>74</v>
       </c>
@@ -3010,22 +3153,25 @@
         <v>74</v>
       </c>
       <c r="AG22" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH22" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH22" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI22" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK22" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK22" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -3058,8 +3204,8 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1920000002.55</v>
       </c>
       <c r="M23" s="39">
         <v>150000</v>
@@ -3071,8 +3217,8 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="Q23" s="39">
         <v>12750000000</v>
@@ -3081,15 +3227,17 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="AA23" s="38" t="s">
+      <c r="S23" s="73">
+        <v>5.03</v>
+      </c>
+      <c r="T23" s="74">
+        <v>5.26</v>
+      </c>
+      <c r="U23" s="71"/>
+      <c r="V23" s="69"/>
+      <c r="AB23" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AB23" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC23" s="38" t="s">
         <v>74</v>
       </c>
@@ -3103,22 +3251,25 @@
         <v>74</v>
       </c>
       <c r="AG23" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH23" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH23" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI23" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK23" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK23" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -3151,8 +3302,8 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1920000002.55</v>
       </c>
       <c r="M24" s="39">
         <v>150000</v>
@@ -3164,8 +3315,8 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="Q24" s="39">
         <v>12750000000</v>
@@ -3174,15 +3325,17 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="AA24" s="38" t="s">
+      <c r="S24" s="73">
+        <v>5.03</v>
+      </c>
+      <c r="T24" s="74">
+        <v>5.26</v>
+      </c>
+      <c r="U24" s="71"/>
+      <c r="V24" s="69"/>
+      <c r="AB24" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AB24" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC24" s="38" t="s">
         <v>74</v>
       </c>
@@ -3196,22 +3349,25 @@
         <v>74</v>
       </c>
       <c r="AG24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH24" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH24" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI24" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ24" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK24" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -3244,8 +3400,8 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
-        <v>1920500000</v>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
+        <v>1920000002.55</v>
       </c>
       <c r="M25" s="39">
         <v>150000</v>
@@ -3257,8 +3413,8 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)--$U$2</f>
-        <v>1895500000</v>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)--$V$2</f>
+        <v>1895000002.55</v>
       </c>
       <c r="Q25" s="39">
         <v>12750000000</v>
@@ -3267,12 +3423,14 @@
         <f t="shared" si="0"/>
         <v>1907.5</v>
       </c>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="AB25" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S25" s="73">
+        <v>5.03</v>
+      </c>
+      <c r="T25" s="74">
+        <v>5.26</v>
+      </c>
+      <c r="U25" s="71"/>
+      <c r="V25" s="69"/>
       <c r="AC25" s="38" t="s">
         <v>74</v>
       </c>
@@ -3286,22 +3444,25 @@
         <v>74</v>
       </c>
       <c r="AG25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH25" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH25" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI25" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ25" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK25" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK25" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -3334,8 +3495,8 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1935000002.55</v>
       </c>
       <c r="M26" s="39">
         <v>150000</v>
@@ -3347,8 +3508,8 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1864999997.45</v>
       </c>
       <c r="Q26" s="39">
         <v>12750000000</v>
@@ -3357,15 +3518,17 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="AA26" s="38" t="s">
+      <c r="S26" s="73">
+        <v>5.01</v>
+      </c>
+      <c r="T26" s="74">
+        <v>5.24</v>
+      </c>
+      <c r="U26" s="71"/>
+      <c r="V26" s="69"/>
+      <c r="AB26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AB26" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC26" s="38" t="s">
         <v>74</v>
       </c>
@@ -3379,22 +3542,25 @@
         <v>74</v>
       </c>
       <c r="AG26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH26" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH26" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI26" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ26" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK26" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK26" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -3427,8 +3593,8 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1935000002.55</v>
       </c>
       <c r="M27" s="39">
         <v>150000</v>
@@ -3440,8 +3606,8 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1864999997.45</v>
       </c>
       <c r="Q27" s="39">
         <v>12750000000</v>
@@ -3450,15 +3616,17 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="AA27" s="38" t="s">
+      <c r="S27" s="73">
+        <v>5.01</v>
+      </c>
+      <c r="T27" s="74">
+        <v>5.24</v>
+      </c>
+      <c r="U27" s="71"/>
+      <c r="V27" s="69"/>
+      <c r="AB27" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AB27" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="AC27" s="38" t="s">
         <v>74</v>
       </c>
@@ -3472,22 +3640,25 @@
         <v>74</v>
       </c>
       <c r="AG27" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH27" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH27" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI27" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ27" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK27" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK27" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -3520,8 +3691,8 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
-        <v>1935500000</v>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
+        <v>1935000002.55</v>
       </c>
       <c r="M28" s="39">
         <v>150000</v>
@@ -3533,8 +3704,8 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
-        <v>1864500000</v>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
+        <v>1864999997.45</v>
       </c>
       <c r="Q28" s="39">
         <v>12750000000</v>
@@ -3543,12 +3714,14 @@
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="AB28" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="S28" s="73">
+        <v>5.01</v>
+      </c>
+      <c r="T28" s="74">
+        <v>5.24</v>
+      </c>
+      <c r="U28" s="71"/>
+      <c r="V28" s="69"/>
       <c r="AC28" s="38" t="s">
         <v>74</v>
       </c>
@@ -3562,18 +3735,21 @@
         <v>74</v>
       </c>
       <c r="AG28" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH28" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="AH28" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="AI28" s="38" t="s">
         <v>76</v>
       </c>
       <c r="AJ28" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK28" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="AK28" s="38" t="s">
+      <c r="AL28" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3589,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3613,9 +3789,10 @@
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.85546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3670,14 +3847,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>4</v>
       </c>
@@ -3712,7 +3895,7 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="56">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
@@ -3725,7 +3908,7 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
@@ -3735,15 +3918,21 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T2" s="78">
+        <v>5.61</v>
+      </c>
+      <c r="U2">
         <v>1000000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -3776,7 +3965,7 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="56">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
@@ -3789,7 +3978,7 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
@@ -3799,8 +3988,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T3" s="78">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -3833,7 +4028,7 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="56">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
@@ -3846,7 +4041,7 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
@@ -3856,8 +4051,14 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T4" s="78">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -3890,7 +4091,7 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="56">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M5" s="39">
@@ -3903,7 +4104,7 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
@@ -3913,8 +4114,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T5" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -3947,7 +4154,7 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="56">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M6" s="39">
@@ -3960,7 +4167,7 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
@@ -3970,8 +4177,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T6" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -4004,7 +4217,7 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="56">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M7" s="39">
@@ -4017,7 +4230,7 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
@@ -4027,8 +4240,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T7" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -4061,7 +4280,7 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="56">
-        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M8" s="39">
@@ -4074,7 +4293,7 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
@@ -4084,8 +4303,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -4118,7 +4343,7 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="56">
-        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M9" s="39">
@@ -4131,7 +4356,7 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
@@ -4141,8 +4366,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T9" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -4175,7 +4406,7 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="56">
-        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M10" s="39">
@@ -4188,7 +4419,7 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
@@ -4198,8 +4429,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T10" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -4232,7 +4469,7 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="56">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1736500000</v>
       </c>
       <c r="M11" s="39">
@@ -4245,7 +4482,7 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q11" s="39">
@@ -4255,8 +4492,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T11" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -4289,7 +4532,7 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="56">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1736500000</v>
       </c>
       <c r="M12" s="39">
@@ -4302,7 +4545,7 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q12" s="39">
@@ -4312,8 +4555,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T12" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -4346,7 +4595,7 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="56">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1736500000</v>
       </c>
       <c r="M13" s="39">
@@ -4359,7 +4608,7 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1728500000</v>
       </c>
       <c r="Q13" s="39">
@@ -4369,8 +4618,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T13" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -4403,7 +4658,7 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="56">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1745500000</v>
       </c>
       <c r="M14" s="39">
@@ -4416,7 +4671,7 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q14" s="39">
@@ -4426,8 +4681,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T14" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -4460,7 +4721,7 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="56">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1745500000</v>
       </c>
       <c r="M15" s="39">
@@ -4473,7 +4734,7 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q15" s="39">
@@ -4483,8 +4744,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T15" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -4517,7 +4784,7 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="56">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1745500000</v>
       </c>
       <c r="M16" s="39">
@@ -4530,7 +4797,7 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1719500000</v>
       </c>
       <c r="Q16" s="39">
@@ -4540,8 +4807,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T16" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -4574,7 +4847,7 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="56">
-        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1768000000</v>
       </c>
       <c r="M17" s="39">
@@ -4587,7 +4860,7 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q17" s="39">
@@ -4597,8 +4870,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T17" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -4631,7 +4910,7 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="56">
-        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1768000000</v>
       </c>
       <c r="M18" s="39">
@@ -4644,7 +4923,7 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q18" s="39">
@@ -4654,8 +4933,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T18" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -4688,7 +4973,7 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="56">
-        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1768000000</v>
       </c>
       <c r="M19" s="39">
@@ -4701,7 +4986,7 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1697000000</v>
       </c>
       <c r="Q19" s="39">
@@ -4711,8 +4996,14 @@
         <f t="shared" si="0"/>
         <v>1732.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="78">
+        <v>4.53</v>
+      </c>
+      <c r="T19" s="78">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -4745,7 +5036,7 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="56">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M20" s="39">
@@ -4758,7 +5049,7 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q20" s="39">
@@ -4768,8 +5059,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T20" s="78">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -4802,7 +5099,7 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="56">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M21" s="39">
@@ -4815,7 +5112,7 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q21" s="39">
@@ -4825,8 +5122,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T21" s="78">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -4859,7 +5162,7 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="56">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1758300000.0000002</v>
       </c>
       <c r="M22" s="39">
@@ -4872,7 +5175,7 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1750300000.0000002</v>
       </c>
       <c r="Q22" s="39">
@@ -4882,8 +5185,14 @@
         <f t="shared" si="0"/>
         <v>1754.3000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="78">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T22" s="78">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -4916,7 +5225,7 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="56">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1765500000</v>
       </c>
       <c r="M23" s="39">
@@ -4929,7 +5238,7 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q23" s="39">
@@ -4939,8 +5248,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="78">
+        <v>4.59</v>
+      </c>
+      <c r="T23" s="78">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -4973,7 +5288,7 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="56">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1765500000</v>
       </c>
       <c r="M24" s="39">
@@ -4986,7 +5301,7 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q24" s="39">
@@ -4996,8 +5311,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="78">
+        <v>4.59</v>
+      </c>
+      <c r="T24" s="78">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -5030,7 +5351,7 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="56">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1765500000</v>
       </c>
       <c r="M25" s="39">
@@ -5043,7 +5364,7 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1739500000</v>
       </c>
       <c r="Q25" s="39">
@@ -5053,8 +5374,14 @@
         <f t="shared" si="0"/>
         <v>1752.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="78">
+        <v>4.59</v>
+      </c>
+      <c r="T25" s="78">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -5087,7 +5414,7 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="56">
-        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M26" s="39">
@@ -5100,7 +5427,7 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q26" s="39">
@@ -5110,8 +5437,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T26" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -5144,7 +5477,7 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="56">
-        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M27" s="39">
@@ -5157,7 +5490,7 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q27" s="39">
@@ -5167,8 +5500,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T27" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -5201,7 +5540,7 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="56">
-        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M28" s="39">
@@ -5214,7 +5553,7 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q28" s="39">
@@ -5223,6 +5562,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>1745</v>
+      </c>
+      <c r="S28" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T28" s="78">
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
@@ -5232,10 +5577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8596D56-7C71-4D72-A666-9CAEA981CBE7}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,9 +5602,10 @@
     <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5314,14 +5660,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>5</v>
       </c>
@@ -5353,7 +5705,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L2" s="39">
@@ -5366,7 +5718,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P2" s="39">
@@ -5379,15 +5731,21 @@
         <f>(C2-45)</f>
         <v>824.7</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="78">
+        <v>1.93</v>
+      </c>
+      <c r="T2" s="78">
+        <v>2.06</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="64"/>
       <c r="B3" s="65">
         <v>1.4</v>
@@ -5417,7 +5775,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L3" s="39">
@@ -5430,7 +5788,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P3" s="39">
@@ -5443,8 +5801,14 @@
         <f t="shared" ref="R3:R28" si="0">(C3-45)</f>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="78">
+        <v>1.93</v>
+      </c>
+      <c r="T3" s="78">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="64"/>
       <c r="B4" s="65">
         <v>1.4</v>
@@ -5474,7 +5838,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>828250000</v>
       </c>
       <c r="L4" s="39">
@@ -5487,7 +5851,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>821150000</v>
       </c>
       <c r="P4" s="39">
@@ -5500,8 +5864,14 @@
         <f t="shared" si="0"/>
         <v>824.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="78">
+        <v>1.93</v>
+      </c>
+      <c r="T4" s="78">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
       <c r="B5" s="65">
         <v>5</v>
@@ -5531,7 +5901,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L5" s="39">
@@ -5544,7 +5914,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P5" s="39">
@@ -5557,8 +5927,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="78">
+        <v>1.94</v>
+      </c>
+      <c r="T5" s="78">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="64"/>
       <c r="B6" s="65">
         <v>5</v>
@@ -5588,7 +5964,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L6" s="39">
@@ -5601,7 +5977,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P6" s="39">
@@ -5614,8 +5990,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="78">
+        <v>1.94</v>
+      </c>
+      <c r="T6" s="78">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="64"/>
       <c r="B7" s="65">
         <v>5</v>
@@ -5645,7 +6027,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>839050000</v>
       </c>
       <c r="L7" s="39">
@@ -5658,7 +6040,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>813950000</v>
       </c>
       <c r="P7" s="39">
@@ -5671,8 +6053,14 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="78">
+        <v>1.94</v>
+      </c>
+      <c r="T7" s="78">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="64"/>
       <c r="B8" s="65">
         <v>10</v>
@@ -5702,7 +6090,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L8" s="39">
@@ -5715,7 +6103,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P8" s="39">
@@ -5728,8 +6116,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="78">
+        <v>1.95</v>
+      </c>
+      <c r="T8" s="78">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="64"/>
       <c r="B9" s="65">
         <v>10</v>
@@ -5759,7 +6153,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L9" s="39">
@@ -5772,7 +6166,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P9" s="39">
@@ -5785,8 +6179,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="78">
+        <v>1.95</v>
+      </c>
+      <c r="T9" s="78">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="64"/>
       <c r="B10" s="65">
         <v>10</v>
@@ -5816,7 +6216,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L10" s="39">
@@ -5829,7 +6229,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>808950000</v>
       </c>
       <c r="P10" s="39">
@@ -5842,8 +6242,14 @@
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="78">
+        <v>1.95</v>
+      </c>
+      <c r="T10" s="78">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
       <c r="B11" s="65">
         <v>1.4</v>
@@ -5873,7 +6279,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L11" s="39">
@@ -5886,7 +6292,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P11" s="39">
@@ -5899,8 +6305,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T11" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="64"/>
       <c r="B12" s="65">
         <v>1.4</v>
@@ -5930,7 +6342,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L12" s="39">
@@ -5943,7 +6355,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P12" s="39">
@@ -5956,8 +6368,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T12" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
       <c r="B13" s="65">
         <v>1.4</v>
@@ -5987,7 +6405,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>840050000</v>
       </c>
       <c r="L13" s="39">
@@ -6000,7 +6418,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>832950000</v>
       </c>
       <c r="P13" s="39">
@@ -6013,8 +6431,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T13" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="64"/>
       <c r="B14" s="65">
         <v>5</v>
@@ -6044,7 +6468,7 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L14" s="39">
@@ -6057,7 +6481,7 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P14" s="39">
@@ -6070,8 +6494,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T14" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
       <c r="B15" s="65">
         <v>5</v>
@@ -6101,7 +6531,7 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L15" s="39">
@@ -6114,7 +6544,7 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P15" s="39">
@@ -6127,8 +6557,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T15" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
       <c r="B16" s="65">
         <v>5</v>
@@ -6158,7 +6594,7 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>849050000</v>
       </c>
       <c r="L16" s="39">
@@ -6171,7 +6607,7 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P16" s="39">
@@ -6184,8 +6620,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T16" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="64"/>
       <c r="B17" s="65">
         <v>10</v>
@@ -6215,7 +6657,7 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L17" s="39">
@@ -6228,7 +6670,7 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P17" s="39">
@@ -6241,8 +6683,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T17" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="64"/>
       <c r="B18" s="65">
         <v>10</v>
@@ -6272,7 +6720,7 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L18" s="39">
@@ -6285,7 +6733,7 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P18" s="39">
@@ -6298,8 +6746,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T18" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="64"/>
       <c r="B19" s="65">
         <v>10</v>
@@ -6329,7 +6783,7 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>856550000</v>
       </c>
       <c r="L19" s="39">
@@ -6342,7 +6796,7 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>816450000</v>
       </c>
       <c r="P19" s="39">
@@ -6355,8 +6809,14 @@
         <f t="shared" si="0"/>
         <v>836.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="78">
+        <v>1.97</v>
+      </c>
+      <c r="T19" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="64"/>
       <c r="B20" s="65">
         <v>1.4</v>
@@ -6386,7 +6846,7 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L20" s="39">
@@ -6399,7 +6859,7 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P20" s="39">
@@ -6412,8 +6872,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="78">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T20" s="78">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="64"/>
       <c r="B21" s="65">
         <v>1.4</v>
@@ -6443,7 +6909,7 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L21" s="39">
@@ -6456,7 +6922,7 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P21" s="39">
@@ -6469,8 +6935,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="78">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T21" s="78">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="64"/>
       <c r="B22" s="65">
         <v>1.4</v>
@@ -6500,7 +6972,7 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>851850000</v>
       </c>
       <c r="L22" s="39">
@@ -6513,7 +6985,7 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>844750000</v>
       </c>
       <c r="P22" s="39">
@@ -6526,8 +6998,14 @@
         <f t="shared" si="0"/>
         <v>848.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="78">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T22" s="78">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
       <c r="B23" s="65">
         <v>5</v>
@@ -6557,7 +7035,7 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L23" s="39">
@@ -6570,7 +7048,7 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P23" s="39">
@@ -6583,8 +7061,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="78">
+        <v>2</v>
+      </c>
+      <c r="T23" s="78">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
       <c r="B24" s="65">
         <v>5</v>
@@ -6614,7 +7098,7 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L24" s="39">
@@ -6627,7 +7111,7 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P24" s="39">
@@ -6640,8 +7124,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="78">
+        <v>2</v>
+      </c>
+      <c r="T24" s="78">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
       <c r="B25" s="65">
         <v>5</v>
@@ -6671,7 +7161,7 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>859050000</v>
       </c>
       <c r="L25" s="39">
@@ -6684,7 +7174,7 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>833950000</v>
       </c>
       <c r="P25" s="39">
@@ -6697,8 +7187,14 @@
         <f t="shared" si="0"/>
         <v>846.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="78">
+        <v>2</v>
+      </c>
+      <c r="T25" s="78">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="64"/>
       <c r="B26" s="65">
         <v>10</v>
@@ -6728,7 +7224,7 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L26" s="39">
@@ -6741,7 +7237,7 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P26" s="39">
@@ -6754,8 +7250,14 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="78">
+        <v>1.99</v>
+      </c>
+      <c r="T26" s="78">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="65">
         <v>10</v>
@@ -6785,7 +7287,7 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L27" s="39">
@@ -6798,7 +7300,7 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P27" s="39">
@@ -6811,8 +7313,14 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="78">
+        <v>1.99</v>
+      </c>
+      <c r="T27" s="78">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
       <c r="B28" s="65">
         <v>10</v>
@@ -6842,7 +7350,7 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>864050000</v>
       </c>
       <c r="L28" s="39">
@@ -6855,7 +7363,7 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>823950000</v>
       </c>
       <c r="P28" s="39">
@@ -6868,14 +7376,20 @@
         <f t="shared" si="0"/>
         <v>844</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="78">
+        <v>1.99</v>
+      </c>
+      <c r="T28" s="78">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K29" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D32" s="27"/>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
@@ -6901,10 +7415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D108741B-A8D0-4BB3-B12C-6B68B68001DF}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,9 +7440,10 @@
     <col min="16" max="16" width="18.140625" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -6983,14 +7498,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>12</v>
       </c>
@@ -7022,7 +7543,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L2" s="39">
@@ -7035,7 +7556,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P2" s="39">
@@ -7048,15 +7569,21 @@
         <f>C2-30</f>
         <v>699.7</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="78">
+        <v>1.58</v>
+      </c>
+      <c r="T2" s="78">
+        <v>1.66</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -7086,7 +7613,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L3" s="39">
@@ -7099,7 +7626,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P3" s="39">
@@ -7112,8 +7639,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-30</f>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="78">
+        <v>1.58</v>
+      </c>
+      <c r="T3" s="78">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -7143,7 +7676,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>703250000</v>
       </c>
       <c r="L4" s="39">
@@ -7156,7 +7689,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>696150000</v>
       </c>
       <c r="P4" s="39">
@@ -7169,8 +7702,14 @@
         <f t="shared" si="0"/>
         <v>699.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="78">
+        <v>1.58</v>
+      </c>
+      <c r="T4" s="78">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -7200,7 +7739,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L5" s="39">
@@ -7213,7 +7752,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P5" s="39">
@@ -7226,8 +7765,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="78">
+        <v>1.59</v>
+      </c>
+      <c r="T5" s="78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -7257,7 +7802,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L6" s="39">
@@ -7270,7 +7815,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P6" s="39">
@@ -7283,8 +7828,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="78">
+        <v>1.59</v>
+      </c>
+      <c r="T6" s="78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -7314,7 +7865,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>714050000</v>
       </c>
       <c r="L7" s="39">
@@ -7327,7 +7878,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>688950000</v>
       </c>
       <c r="P7" s="39">
@@ -7340,8 +7891,14 @@
         <f t="shared" si="0"/>
         <v>701.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="78">
+        <v>1.59</v>
+      </c>
+      <c r="T7" s="78">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>10</v>
@@ -7371,7 +7928,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L8" s="39">
@@ -7384,7 +7941,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P8" s="39">
@@ -7397,8 +7954,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="T8" s="78">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>10</v>
@@ -7428,7 +7991,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L9" s="39">
@@ -7441,7 +8004,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P9" s="39">
@@ -7454,8 +8017,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="T9" s="78">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>10</v>
@@ -7485,7 +8054,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>724050000</v>
       </c>
       <c r="L10" s="39">
@@ -7498,7 +8067,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>683950000</v>
       </c>
       <c r="P10" s="39">
@@ -7511,8 +8080,14 @@
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="78">
+        <v>1.6</v>
+      </c>
+      <c r="T10" s="78">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -7542,7 +8117,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L11" s="39">
@@ -7555,7 +8130,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P11" s="39">
@@ -7568,8 +8143,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T11" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -7599,7 +8180,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L12" s="39">
@@ -7612,7 +8193,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P12" s="39">
@@ -7625,8 +8206,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T12" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -7656,7 +8243,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>711050000</v>
       </c>
       <c r="L13" s="39">
@@ -7669,7 +8256,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>703950000</v>
       </c>
       <c r="P13" s="39">
@@ -7682,8 +8269,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T13" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -7713,7 +8306,7 @@
         <v>30000000</v>
       </c>
       <c r="K14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L14" s="39">
@@ -7726,7 +8319,7 @@
         <v>30000000</v>
       </c>
       <c r="O14" s="53">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P14" s="39">
@@ -7739,8 +8332,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T14" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -7770,7 +8369,7 @@
         <v>30000000</v>
       </c>
       <c r="K15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L15" s="39">
@@ -7783,7 +8382,7 @@
         <v>30000000</v>
       </c>
       <c r="O15" s="53">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P15" s="39">
@@ -7796,8 +8395,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T15" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -7827,7 +8432,7 @@
         <v>30000000</v>
       </c>
       <c r="K16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>720050000</v>
       </c>
       <c r="L16" s="39">
@@ -7840,7 +8445,7 @@
         <v>30000000</v>
       </c>
       <c r="O16" s="53">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>694950000</v>
       </c>
       <c r="P16" s="39">
@@ -7853,8 +8458,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T16" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>10</v>
@@ -7884,7 +8495,7 @@
         <v>30000000</v>
       </c>
       <c r="K17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L17" s="39">
@@ -7897,7 +8508,7 @@
         <v>30000000</v>
       </c>
       <c r="O17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P17" s="39">
@@ -7910,8 +8521,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T17" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>10</v>
@@ -7941,7 +8558,7 @@
         <v>30000000</v>
       </c>
       <c r="K18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L18" s="39">
@@ -7954,7 +8571,7 @@
         <v>30000000</v>
       </c>
       <c r="O18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P18" s="39">
@@ -7967,8 +8584,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T18" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>10</v>
@@ -7998,7 +8621,7 @@
         <v>30000000</v>
       </c>
       <c r="K19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>727550000</v>
       </c>
       <c r="L19" s="39">
@@ -8011,7 +8634,7 @@
         <v>30000000</v>
       </c>
       <c r="O19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>687450000</v>
       </c>
       <c r="P19" s="39">
@@ -8024,8 +8647,14 @@
         <f t="shared" si="0"/>
         <v>707.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T19" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -8055,7 +8684,7 @@
         <v>30000000</v>
       </c>
       <c r="K20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L20" s="39">
@@ -8068,7 +8697,7 @@
         <v>30000000</v>
       </c>
       <c r="O20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P20" s="39">
@@ -8081,8 +8710,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="78">
+        <v>1.63</v>
+      </c>
+      <c r="T20" s="78">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -8112,7 +8747,7 @@
         <v>30000000</v>
       </c>
       <c r="K21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L21" s="39">
@@ -8125,7 +8760,7 @@
         <v>30000000</v>
       </c>
       <c r="O21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P21" s="39">
@@ -8138,8 +8773,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="78">
+        <v>1.63</v>
+      </c>
+      <c r="T21" s="78">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -8169,7 +8810,7 @@
         <v>30000000</v>
       </c>
       <c r="K22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>718850000</v>
       </c>
       <c r="L22" s="39">
@@ -8182,7 +8823,7 @@
         <v>30000000</v>
       </c>
       <c r="O22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>711750000</v>
       </c>
       <c r="P22" s="39">
@@ -8195,8 +8836,14 @@
         <f t="shared" si="0"/>
         <v>715.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="78">
+        <v>1.63</v>
+      </c>
+      <c r="T22" s="78">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -8226,7 +8873,7 @@
         <v>30000000</v>
       </c>
       <c r="K23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L23" s="39">
@@ -8239,7 +8886,7 @@
         <v>30000000</v>
       </c>
       <c r="O23" s="53">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P23" s="39">
@@ -8252,8 +8899,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="78">
+        <v>1.62</v>
+      </c>
+      <c r="T23" s="78">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -8283,7 +8936,7 @@
         <v>30000000</v>
       </c>
       <c r="K24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L24" s="39">
@@ -8296,7 +8949,7 @@
         <v>30000000</v>
       </c>
       <c r="O24" s="53">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P24" s="39">
@@ -8309,8 +8962,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="78">
+        <v>1.62</v>
+      </c>
+      <c r="T24" s="78">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -8340,7 +8999,7 @@
         <v>30000000</v>
       </c>
       <c r="K25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>726050000</v>
       </c>
       <c r="L25" s="39">
@@ -8353,7 +9012,7 @@
         <v>30000000</v>
       </c>
       <c r="O25" s="53">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>700950000</v>
       </c>
       <c r="P25" s="39">
@@ -8366,8 +9025,14 @@
         <f t="shared" si="0"/>
         <v>713.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="78">
+        <v>1.62</v>
+      </c>
+      <c r="T25" s="78">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>10</v>
@@ -8397,7 +9062,7 @@
         <v>30000000</v>
       </c>
       <c r="K26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L26" s="39">
@@ -8410,7 +9075,7 @@
         <v>30000000</v>
       </c>
       <c r="O26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P26" s="39">
@@ -8423,8 +9088,14 @@
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T26" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>10</v>
@@ -8454,7 +9125,7 @@
         <v>30000000</v>
       </c>
       <c r="K27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L27" s="39">
@@ -8467,7 +9138,7 @@
         <v>30000000</v>
       </c>
       <c r="O27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P27" s="39">
@@ -8480,8 +9151,14 @@
         <f t="shared" si="0"/>
         <v>711</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T27" s="78">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>10</v>
@@ -8511,7 +9188,7 @@
         <v>30000000</v>
       </c>
       <c r="K28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>731050000</v>
       </c>
       <c r="L28" s="39">
@@ -8524,7 +9201,7 @@
         <v>30000000</v>
       </c>
       <c r="O28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>690950000</v>
       </c>
       <c r="P28" s="39">
@@ -8536,6 +9213,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>711</v>
+      </c>
+      <c r="S28" s="78">
+        <v>1.61</v>
+      </c>
+      <c r="T28" s="78">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
@@ -8545,10 +9228,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8569,9 +9252,10 @@
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -8626,14 +9310,18 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="77"/>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>13</v>
       </c>
@@ -8665,7 +9353,7 @@
         <v>30000000</v>
       </c>
       <c r="K2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L2" s="39">
@@ -8678,7 +9366,7 @@
         <v>30000000</v>
       </c>
       <c r="O2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P2" s="39">
@@ -8691,15 +9379,21 @@
         <f>C2+31</f>
         <v>779.5</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="80">
+        <v>1.81</v>
+      </c>
+      <c r="T2" s="80">
+        <v>1.72</v>
+      </c>
+      <c r="U2">
         <v>100000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>5</v>
@@ -8729,7 +9423,7 @@
         <v>30000000</v>
       </c>
       <c r="K3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L3" s="39">
@@ -8742,7 +9436,7 @@
         <v>30000000</v>
       </c>
       <c r="O3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P3" s="39">
@@ -8755,8 +9449,14 @@
         <f t="shared" ref="R3:R13" si="0">C3+31</f>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="80">
+        <v>1.81</v>
+      </c>
+      <c r="T3" s="80">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>5</v>
@@ -8786,7 +9486,7 @@
         <v>30000000</v>
       </c>
       <c r="K4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>792050000</v>
       </c>
       <c r="L4" s="39">
@@ -8799,7 +9499,7 @@
         <v>30000000</v>
       </c>
       <c r="O4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>766950000</v>
       </c>
       <c r="P4" s="39">
@@ -8812,8 +9512,14 @@
         <f t="shared" si="0"/>
         <v>779.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="80">
+        <v>1.81</v>
+      </c>
+      <c r="T4" s="80">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -8843,7 +9549,7 @@
         <v>30000000</v>
       </c>
       <c r="K5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L5" s="39">
@@ -8856,7 +9562,7 @@
         <v>30000000</v>
       </c>
       <c r="O5" s="53">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P5" s="39">
@@ -8869,8 +9575,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T5" s="80">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -8900,7 +9612,7 @@
         <v>30000000</v>
       </c>
       <c r="K6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L6" s="39">
@@ -8913,7 +9625,7 @@
         <v>30000000</v>
       </c>
       <c r="O6" s="53">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P6" s="39">
@@ -8926,8 +9638,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T6" s="80">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -8957,7 +9675,7 @@
         <v>30000000</v>
       </c>
       <c r="K7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>794550000</v>
       </c>
       <c r="L7" s="39">
@@ -8970,7 +9688,7 @@
         <v>30000000</v>
       </c>
       <c r="O7" s="53">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>769450000</v>
       </c>
       <c r="P7" s="39">
@@ -8983,8 +9701,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T7" s="80">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>5</v>
@@ -9014,7 +9738,7 @@
         <v>30000000</v>
       </c>
       <c r="K8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L8" s="39">
@@ -9027,7 +9751,7 @@
         <v>30000000</v>
       </c>
       <c r="O8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P8" s="39">
@@ -9040,8 +9764,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="80">
+        <v>1.83</v>
+      </c>
+      <c r="T8" s="80">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>5</v>
@@ -9071,7 +9801,7 @@
         <v>30000000</v>
       </c>
       <c r="K9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L9" s="39">
@@ -9084,7 +9814,7 @@
         <v>30000000</v>
       </c>
       <c r="O9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P9" s="39">
@@ -9097,8 +9827,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="80">
+        <v>1.83</v>
+      </c>
+      <c r="T9" s="80">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>5</v>
@@ -9128,7 +9864,7 @@
         <v>30000000</v>
       </c>
       <c r="K10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>797050000</v>
       </c>
       <c r="L10" s="39">
@@ -9141,7 +9877,7 @@
         <v>30000000</v>
       </c>
       <c r="O10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>771950000</v>
       </c>
       <c r="P10" s="39">
@@ -9154,8 +9890,14 @@
         <f t="shared" si="0"/>
         <v>784.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="80">
+        <v>1.83</v>
+      </c>
+      <c r="T10" s="80">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>10</v>
@@ -9185,7 +9927,7 @@
         <v>30000000</v>
       </c>
       <c r="K11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L11" s="39">
@@ -9198,7 +9940,7 @@
         <v>30000000</v>
       </c>
       <c r="O11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P11" s="39">
@@ -9211,8 +9953,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T11" s="80">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>10</v>
@@ -9242,7 +9990,7 @@
         <v>30000000</v>
       </c>
       <c r="K12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L12" s="39">
@@ -9255,7 +10003,7 @@
         <v>30000000</v>
       </c>
       <c r="O12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P12" s="39">
@@ -9268,8 +10016,14 @@
         <f t="shared" si="0"/>
         <v>782</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T12" s="80">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -9299,7 +10053,7 @@
         <v>30000000</v>
       </c>
       <c r="K13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$5)*1000000)+$V$2</f>
         <v>802050000</v>
       </c>
       <c r="L13" s="39">
@@ -9312,7 +10066,7 @@
         <v>30000000</v>
       </c>
       <c r="O13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$5)*1000000)-$V$2</f>
         <v>761950000</v>
       </c>
       <c r="P13" s="39">
@@ -9324,6 +10078,12 @@
       <c r="R13" s="59">
         <f t="shared" si="0"/>
         <v>782</v>
+      </c>
+      <c r="S13" s="80">
+        <v>1.82</v>
+      </c>
+      <c r="T13" s="80">
+        <v>1.73</v>
       </c>
     </row>
   </sheetData>
@@ -9334,10 +10094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9351,9 +10111,10 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -9408,14 +10169,20 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="S1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="67" t="s">
+      <c r="V1" s="67" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>66</v>
       </c>
@@ -9450,7 +10217,7 @@
         <v>1000000000</v>
       </c>
       <c r="L2" s="53">
-        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R2+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M2" s="39">
@@ -9463,7 +10230,7 @@
         <v>1000000000</v>
       </c>
       <c r="P2" s="53">
-        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R2-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q2" s="39">
@@ -9473,15 +10240,21 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="T2">
+      <c r="S2" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T2" s="78">
+        <v>5.61</v>
+      </c>
+      <c r="U2">
         <v>1000000</v>
       </c>
-      <c r="U2">
-        <f>T2/2</f>
+      <c r="V2">
+        <f>U2/2</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="39">
         <v>1.4</v>
@@ -9514,7 +10287,7 @@
         <v>1000000000</v>
       </c>
       <c r="L3" s="53">
-        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R3+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M3" s="39">
@@ -9527,7 +10300,7 @@
         <v>1000000000</v>
       </c>
       <c r="P3" s="53">
-        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R3-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q3" s="39">
@@ -9537,8 +10310,14 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T3" s="78">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="39">
         <v>1.4</v>
@@ -9571,7 +10350,7 @@
         <v>1000000000</v>
       </c>
       <c r="L4" s="53">
-        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R4+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1714699999.9999998</v>
       </c>
       <c r="M4" s="39">
@@ -9584,7 +10363,7 @@
         <v>1000000000</v>
       </c>
       <c r="P4" s="53">
-        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R4-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1706699999.9999998</v>
       </c>
       <c r="Q4" s="39">
@@ -9594,8 +10373,14 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="78">
+        <v>4.47</v>
+      </c>
+      <c r="T4" s="78">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="39">
         <v>5</v>
@@ -9628,7 +10413,7 @@
         <v>1000000000</v>
       </c>
       <c r="L5" s="53">
-        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R5+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M5" s="39">
@@ -9641,7 +10426,7 @@
         <v>1000000000</v>
       </c>
       <c r="P5" s="58">
-        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R5-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q5" s="39">
@@ -9651,8 +10436,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T5" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39">
         <v>5</v>
@@ -9685,7 +10476,7 @@
         <v>1000000000</v>
       </c>
       <c r="L6" s="53">
-        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R6+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M6" s="39">
@@ -9698,7 +10489,7 @@
         <v>1000000000</v>
       </c>
       <c r="P6" s="58">
-        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R6-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q6" s="39">
@@ -9708,8 +10499,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T6" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="39">
         <v>5</v>
@@ -9742,7 +10539,7 @@
         <v>1000000000</v>
       </c>
       <c r="L7" s="53">
-        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R7+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1725500000</v>
       </c>
       <c r="M7" s="39">
@@ -9755,7 +10552,7 @@
         <v>1000000000</v>
       </c>
       <c r="P7" s="58">
-        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R7-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1699500000</v>
       </c>
       <c r="Q7" s="39">
@@ -9765,8 +10562,14 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="78">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="T7" s="78">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="39">
         <v>20</v>
@@ -9799,7 +10602,7 @@
         <v>1000000000</v>
       </c>
       <c r="L8" s="53">
-        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R8+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M8" s="39">
@@ -9812,7 +10615,7 @@
         <v>1000000000</v>
       </c>
       <c r="P8" s="53">
-        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R8-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q8" s="39">
@@ -9822,8 +10625,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T8" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="39">
         <v>20</v>
@@ -9856,7 +10665,7 @@
         <v>1000000000</v>
       </c>
       <c r="L9" s="53">
-        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R9+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M9" s="39">
@@ -9869,7 +10678,7 @@
         <v>1000000000</v>
       </c>
       <c r="P9" s="53">
-        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R9-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q9" s="39">
@@ -9879,8 +10688,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T9" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="39">
         <v>20</v>
@@ -9913,7 +10728,7 @@
         <v>1000000000</v>
       </c>
       <c r="L10" s="53">
-        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R10+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1755500000</v>
       </c>
       <c r="M10" s="39">
@@ -9926,7 +10741,7 @@
         <v>1000000000</v>
       </c>
       <c r="P10" s="53">
-        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R10-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1684500000</v>
       </c>
       <c r="Q10" s="39">
@@ -9936,8 +10751,14 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="78">
+        <v>4.5</v>
+      </c>
+      <c r="T10" s="78">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="42">
         <v>1.4</v>
@@ -9970,7 +10791,7 @@
         <v>1000000000</v>
       </c>
       <c r="L11" s="53">
-        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R11+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M11" s="39">
@@ -9983,7 +10804,7 @@
         <v>1000000000</v>
       </c>
       <c r="P11" s="53">
-        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R11-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q11" s="39">
@@ -9993,8 +10814,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T11" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="42">
         <v>1.4</v>
@@ -10027,7 +10854,7 @@
         <v>1000000000</v>
       </c>
       <c r="L12" s="53">
-        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R12+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M12" s="39">
@@ -10040,7 +10867,7 @@
         <v>1000000000</v>
       </c>
       <c r="P12" s="53">
-        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R12-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q12" s="39">
@@ -10050,8 +10877,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T12" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="42">
         <v>1.4</v>
@@ -10084,7 +10917,7 @@
         <v>1000000000</v>
       </c>
       <c r="L13" s="53">
-        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R13+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1749000000</v>
       </c>
       <c r="M13" s="39">
@@ -10097,7 +10930,7 @@
         <v>1000000000</v>
       </c>
       <c r="P13" s="53">
-        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R13-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1741000000</v>
       </c>
       <c r="Q13" s="39">
@@ -10107,8 +10940,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T13" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="42">
         <v>5</v>
@@ -10141,7 +10980,7 @@
         <v>1000000000</v>
       </c>
       <c r="L14" s="53">
-        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R14+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M14" s="39">
@@ -10154,7 +10993,7 @@
         <v>1000000000</v>
       </c>
       <c r="P14" s="58">
-        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R14-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q14" s="39">
@@ -10164,8 +11003,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T14" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42">
         <v>5</v>
@@ -10198,7 +11043,7 @@
         <v>1000000000</v>
       </c>
       <c r="L15" s="53">
-        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R15+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M15" s="39">
@@ -10211,7 +11056,7 @@
         <v>1000000000</v>
       </c>
       <c r="P15" s="58">
-        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R15-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q15" s="39">
@@ -10221,8 +11066,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T15" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="42">
         <v>5</v>
@@ -10255,7 +11106,7 @@
         <v>1000000000</v>
       </c>
       <c r="L16" s="53">
-        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R16+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1758000000</v>
       </c>
       <c r="M16" s="39">
@@ -10268,7 +11119,7 @@
         <v>1000000000</v>
       </c>
       <c r="P16" s="58">
-        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R16-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1732000000</v>
       </c>
       <c r="Q16" s="39">
@@ -10278,8 +11129,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T16" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42">
         <v>20</v>
@@ -10312,7 +11169,7 @@
         <v>1000000000</v>
       </c>
       <c r="L17" s="53">
-        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R17+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M17" s="39">
@@ -10325,7 +11182,7 @@
         <v>1000000000</v>
       </c>
       <c r="P17" s="53">
-        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R17-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q17" s="39">
@@ -10335,8 +11192,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T17" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="42">
         <v>20</v>
@@ -10369,7 +11232,7 @@
         <v>1000000000</v>
       </c>
       <c r="L18" s="53">
-        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R18+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M18" s="39">
@@ -10382,7 +11245,7 @@
         <v>1000000000</v>
       </c>
       <c r="P18" s="53">
-        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R18-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q18" s="39">
@@ -10392,8 +11255,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T18" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="42">
         <v>20</v>
@@ -10426,7 +11295,7 @@
         <v>1000000000</v>
       </c>
       <c r="L19" s="53">
-        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R19+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1780500000</v>
       </c>
       <c r="M19" s="39">
@@ -10439,7 +11308,7 @@
         <v>1000000000</v>
       </c>
       <c r="P19" s="53">
-        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R19-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1709500000</v>
       </c>
       <c r="Q19" s="39">
@@ -10449,8 +11318,14 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="78">
+        <v>4.57</v>
+      </c>
+      <c r="T19" s="78">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45">
         <v>1.4</v>
@@ -10483,7 +11358,7 @@
         <v>1000000000</v>
       </c>
       <c r="L20" s="53">
-        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R20+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M20" s="39">
@@ -10496,7 +11371,7 @@
         <v>1000000000</v>
       </c>
       <c r="P20" s="53">
-        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R20-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q20" s="39">
@@ -10506,8 +11381,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="78">
+        <v>4.67</v>
+      </c>
+      <c r="T20" s="78">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="45">
         <v>1.4</v>
@@ -10540,7 +11421,7 @@
         <v>1000000000</v>
       </c>
       <c r="L21" s="53">
-        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R21+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M21" s="39">
@@ -10553,7 +11434,7 @@
         <v>1000000000</v>
       </c>
       <c r="P21" s="53">
-        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R21-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q21" s="39">
@@ -10563,8 +11444,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="78">
+        <v>4.67</v>
+      </c>
+      <c r="T21" s="78">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45">
         <v>1.4</v>
@@ -10597,7 +11484,7 @@
         <v>1000000000</v>
       </c>
       <c r="L22" s="53">
-        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$U$2</f>
+        <f>((R22+'Frequency Range Setting'!$B$2)*1000000)+$V$2</f>
         <v>1783300000.0000002</v>
       </c>
       <c r="M22" s="39">
@@ -10610,7 +11497,7 @@
         <v>1000000000</v>
       </c>
       <c r="P22" s="53">
-        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$U$2</f>
+        <f>((R22-'Frequency Range Setting'!$B$2)*1000000)-$V$2</f>
         <v>1775300000.0000002</v>
       </c>
       <c r="Q22" s="39">
@@ -10620,8 +11507,14 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="78">
+        <v>4.67</v>
+      </c>
+      <c r="T22" s="78">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="45">
         <v>5</v>
@@ -10654,7 +11547,7 @@
         <v>1000000000</v>
       </c>
       <c r="L23" s="53">
-        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R23+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M23" s="39">
@@ -10667,7 +11560,7 @@
         <v>1000000000</v>
       </c>
       <c r="P23" s="58">
-        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R23-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q23" s="39">
@@ -10677,8 +11570,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="78">
+        <v>4.66</v>
+      </c>
+      <c r="T23" s="78">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="45">
         <v>5</v>
@@ -10711,7 +11610,7 @@
         <v>1000000000</v>
       </c>
       <c r="L24" s="53">
-        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R24+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M24" s="39">
@@ -10724,7 +11623,7 @@
         <v>1000000000</v>
       </c>
       <c r="P24" s="58">
-        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R24-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q24" s="39">
@@ -10734,8 +11633,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="78">
+        <v>4.66</v>
+      </c>
+      <c r="T24" s="78">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="45">
         <v>5</v>
@@ -10768,7 +11673,7 @@
         <v>1000000000</v>
       </c>
       <c r="L25" s="53">
-        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$U$2</f>
+        <f>((R25+'Frequency Range Setting'!$B$4)*1000000)+$V$2</f>
         <v>1790500000</v>
       </c>
       <c r="M25" s="39">
@@ -10781,7 +11686,7 @@
         <v>1000000000</v>
       </c>
       <c r="P25" s="58">
-        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$U$2</f>
+        <f>((R25-'Frequency Range Setting'!$B$4)*1000000)-$V$2</f>
         <v>1764500000</v>
       </c>
       <c r="Q25" s="39">
@@ -10791,8 +11696,14 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="78">
+        <v>4.66</v>
+      </c>
+      <c r="T25" s="78">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="45">
         <v>20</v>
@@ -10825,7 +11736,7 @@
         <v>1000000000</v>
       </c>
       <c r="L26" s="53">
-        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R26+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M26" s="39">
@@ -10838,7 +11749,7 @@
         <v>1000000000</v>
       </c>
       <c r="P26" s="53">
-        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R26-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q26" s="39">
@@ -10848,8 +11759,14 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="78">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T26" s="78">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="45">
         <v>20</v>
@@ -10882,7 +11799,7 @@
         <v>1000000000</v>
       </c>
       <c r="L27" s="53">
-        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R27+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M27" s="39">
@@ -10895,7 +11812,7 @@
         <v>1000000000</v>
       </c>
       <c r="P27" s="53">
-        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R27-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q27" s="39">
@@ -10905,8 +11822,14 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="78">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T27" s="78">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45">
         <v>20</v>
@@ -10939,7 +11862,7 @@
         <v>1000000000</v>
       </c>
       <c r="L28" s="53">
-        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$U$2</f>
+        <f>((R28+'Frequency Range Setting'!$B$7)*1000000)+$V$2</f>
         <v>1805500000</v>
       </c>
       <c r="M28" s="39">
@@ -10952,7 +11875,7 @@
         <v>1000000000</v>
       </c>
       <c r="P28" s="53">
-        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$U$2</f>
+        <f>((R28-'Frequency Range Setting'!$B$7)*1000000)-$V$2</f>
         <v>1734500000</v>
       </c>
       <c r="Q28" s="39">
@@ -10961,6 +11884,12 @@
       <c r="R28" s="57">
         <f t="shared" si="0"/>
         <v>1770</v>
+      </c>
+      <c r="S28" s="78">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="T28" s="78">
+        <v>5.78</v>
       </c>
     </row>
   </sheetData>

--- a/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
+++ b/Band2MaxPowerInput1_FrequencySweepRanges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test\DVT-Wireless-HCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A424CF-ED59-49B8-AFD1-495F34625675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130D205E-C72F-4CBD-8C1F-84FA3720CD0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BA741C37-369C-4D69-BC66-4EE94A3A8637}"/>
   </bookViews>
   <sheets>
     <sheet name="Band2" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,6 +634,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -956,7 +962,7 @@
   <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3767,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F8828-1D8C-4AAA-81FD-7AC3397EB1C9}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5580,7 +5586,7 @@
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7418,7 +7424,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9230,8 +9236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDABD784-AD31-46F2-99DC-A4DD1B41AE1B}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10096,8 +10102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7206B6-36E5-4637-B4E1-0FEA65E91330}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10111,7 +10117,7 @@
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" style="79" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -10169,10 +10175,10 @@
       <c r="R1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="77" t="s">
+      <c r="S1" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="81" t="s">
         <v>93</v>
       </c>
       <c r="U1" s="67" t="s">
@@ -10240,10 +10246,10 @@
         <f>C2-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="S2" s="78">
+      <c r="S2" s="82">
         <v>4.47</v>
       </c>
-      <c r="T2" s="78">
+      <c r="T2" s="82">
         <v>5.61</v>
       </c>
       <c r="U2">
@@ -10310,10 +10316,10 @@
         <f t="shared" ref="R3:R28" si="0">C3-400</f>
         <v>1710.6999999999998</v>
       </c>
-      <c r="S3" s="78">
+      <c r="S3" s="82">
         <v>4.47</v>
       </c>
-      <c r="T3" s="78">
+      <c r="T3" s="82">
         <v>5.61</v>
       </c>
     </row>
@@ -10373,10 +10379,10 @@
         <f t="shared" si="0"/>
         <v>1710.6999999999998</v>
       </c>
-      <c r="S4" s="78">
+      <c r="S4" s="82">
         <v>4.47</v>
       </c>
-      <c r="T4" s="78">
+      <c r="T4" s="82">
         <v>5.61</v>
       </c>
     </row>
@@ -10436,10 +10442,10 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-      <c r="S5" s="78">
+      <c r="S5" s="82">
         <v>4.4800000000000004</v>
       </c>
-      <c r="T5" s="78">
+      <c r="T5" s="82">
         <v>5.62</v>
       </c>
     </row>
@@ -10499,10 +10505,10 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-      <c r="S6" s="78">
+      <c r="S6" s="82">
         <v>4.4800000000000004</v>
       </c>
-      <c r="T6" s="78">
+      <c r="T6" s="82">
         <v>5.62</v>
       </c>
     </row>
@@ -10562,10 +10568,10 @@
         <f t="shared" si="0"/>
         <v>1712.5</v>
       </c>
-      <c r="S7" s="78">
+      <c r="S7" s="82">
         <v>4.4800000000000004</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="82">
         <v>5.62</v>
       </c>
     </row>
@@ -10625,10 +10631,10 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-      <c r="S8" s="78">
+      <c r="S8" s="82">
         <v>4.5</v>
       </c>
-      <c r="T8" s="78">
+      <c r="T8" s="82">
         <v>5.64</v>
       </c>
     </row>
@@ -10688,10 +10694,10 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-      <c r="S9" s="78">
+      <c r="S9" s="82">
         <v>4.5</v>
       </c>
-      <c r="T9" s="78">
+      <c r="T9" s="82">
         <v>5.64</v>
       </c>
     </row>
@@ -10751,10 +10757,10 @@
         <f t="shared" si="0"/>
         <v>1720</v>
       </c>
-      <c r="S10" s="78">
+      <c r="S10" s="82">
         <v>4.5</v>
       </c>
-      <c r="T10" s="78">
+      <c r="T10" s="82">
         <v>5.64</v>
       </c>
     </row>
@@ -10814,10 +10820,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S11" s="78">
+      <c r="S11" s="82">
         <v>4.57</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -10877,10 +10883,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S12" s="78">
+      <c r="S12" s="82">
         <v>4.57</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T12" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -10940,10 +10946,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S13" s="78">
+      <c r="S13" s="82">
         <v>4.57</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11003,10 +11009,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S14" s="78">
+      <c r="S14" s="82">
         <v>4.57</v>
       </c>
-      <c r="T14" s="78">
+      <c r="T14" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11066,10 +11072,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S15" s="78">
+      <c r="S15" s="82">
         <v>4.57</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T15" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11129,10 +11135,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S16" s="78">
+      <c r="S16" s="82">
         <v>4.57</v>
       </c>
-      <c r="T16" s="78">
+      <c r="T16" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11192,10 +11198,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S17" s="78">
+      <c r="S17" s="82">
         <v>4.57</v>
       </c>
-      <c r="T17" s="78">
+      <c r="T17" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11255,10 +11261,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S18" s="78">
+      <c r="S18" s="82">
         <v>4.57</v>
       </c>
-      <c r="T18" s="78">
+      <c r="T18" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11318,10 +11324,10 @@
         <f t="shared" si="0"/>
         <v>1745</v>
       </c>
-      <c r="S19" s="78">
+      <c r="S19" s="82">
         <v>4.57</v>
       </c>
-      <c r="T19" s="78">
+      <c r="T19" s="82">
         <v>5.71</v>
       </c>
     </row>
@@ -11381,10 +11387,10 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-      <c r="S20" s="78">
+      <c r="S20" s="82">
         <v>4.67</v>
       </c>
-      <c r="T20" s="78">
+      <c r="T20" s="82">
         <v>5.81</v>
       </c>
     </row>
@@ -11444,10 +11450,10 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-      <c r="S21" s="78">
+      <c r="S21" s="82">
         <v>4.67</v>
       </c>
-      <c r="T21" s="78">
+      <c r="T21" s="82">
         <v>5.81</v>
       </c>
     </row>
@@ -11507,10 +11513,10 @@
         <f t="shared" si="0"/>
         <v>1779.3000000000002</v>
       </c>
-      <c r="S22" s="78">
+      <c r="S22" s="82">
         <v>4.67</v>
       </c>
-      <c r="T22" s="78">
+      <c r="T22" s="82">
         <v>5.81</v>
       </c>
     </row>
@@ -11570,10 +11576,10 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-      <c r="S23" s="78">
+      <c r="S23" s="82">
         <v>4.66</v>
       </c>
-      <c r="T23" s="78">
+      <c r="T23" s="82">
         <v>5.8</v>
       </c>
     </row>
@@ -11633,10 +11639,10 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-      <c r="S24" s="78">
+      <c r="S24" s="82">
         <v>4.66</v>
       </c>
-      <c r="T24" s="78">
+      <c r="T24" s="82">
         <v>5.8</v>
       </c>
     </row>
@@ -11696,10 +11702,10 @@
         <f t="shared" si="0"/>
         <v>1777.5</v>
       </c>
-      <c r="S25" s="78">
+      <c r="S25" s="82">
         <v>4.66</v>
       </c>
-      <c r="T25" s="78">
+      <c r="T25" s="82">
         <v>5.8</v>
       </c>
     </row>
@@ -11759,10 +11765,10 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="S26" s="78">
+      <c r="S26" s="82">
         <v>4.6399999999999997</v>
       </c>
-      <c r="T26" s="78">
+      <c r="T26" s="82">
         <v>5.78</v>
       </c>
     </row>
@@ -11822,10 +11828,10 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="S27" s="78">
+      <c r="S27" s="82">
         <v>4.6399999999999997</v>
       </c>
-      <c r="T27" s="78">
+      <c r="T27" s="82">
         <v>5.78</v>
       </c>
     </row>
@@ -11885,10 +11891,10 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="S28" s="78">
+      <c r="S28" s="82">
         <v>4.6399999999999997</v>
       </c>
-      <c r="T28" s="78">
+      <c r="T28" s="82">
         <v>5.78</v>
       </c>
     </row>
